--- a/Data & Scripts/Full_Crow_Data.xlsx
+++ b/Data & Scripts/Full_Crow_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Alex-Popescu-Thesis-2023\Data &amp; Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C92A97-AEF3-4DF2-8E6E-0AAEB51B6F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60DF609-865E-4BD8-B53E-FDC1358411DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3150" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{359FEB76-43F5-4253-AE07-674275EDB72D}"/>
+    <workbookView xWindow="-14400" yWindow="3270" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{359FEB76-43F5-4253-AE07-674275EDB72D}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA SHEET" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="META DATA" sheetId="2" r:id="rId3"/>
     <sheet name="INDEX" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DATA SHEET'!$A$1:$AJ$253</definedName>
   </definedNames>
@@ -121,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="350">
   <si>
     <t>RECORDED_DURATION</t>
   </si>
@@ -1302,19 +1299,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SHEET"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Alex Popescu" id="{EBA5F625-CB0A-4ABD-B94C-7C71AD4FBD3E}" userId="S::ap21pb@brocku.ca::7a9adc01-f2f7-47f7-a62f-43e96080b9bc" providerId="AD"/>
@@ -1643,8 +1627,8 @@
   <dimension ref="A1:AJ391"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H128" sqref="H128"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J249" sqref="J249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1817,11 +1801,11 @@
         <f>F2*24</f>
         <v>6.3333333333333339</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H2" s="5" t="str">
         <f>LOOKUP(A2,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I2" t="str">
+      <c r="I2" s="5" t="str">
         <f>LOOKUP(B2,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -1940,11 +1924,11 @@
         <f t="shared" ref="G3:G66" si="7">F3*24</f>
         <v>6.3333333333333339</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" s="5" t="str">
         <f>LOOKUP(A3,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I3" t="str">
+      <c r="I3" s="5" t="str">
         <f>LOOKUP(B3,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -2063,11 +2047,11 @@
         <f t="shared" si="7"/>
         <v>6.3333333333333339</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" s="5" t="str">
         <f>LOOKUP(A4,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I4" t="str">
+      <c r="I4" s="5" t="str">
         <f>LOOKUP(B4,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -2186,11 +2170,11 @@
         <f t="shared" si="7"/>
         <v>6.3333333333333339</v>
       </c>
-      <c r="H5" s="4" t="str">
+      <c r="H5" s="20" t="str">
         <f>LOOKUP(A5,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I5" s="4" t="str">
+      <c r="I5" s="20" t="str">
         <f>LOOKUP(B5,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -2310,11 +2294,11 @@
         <f t="shared" si="7"/>
         <v>6.3333333333333339</v>
       </c>
-      <c r="H6" s="4" t="str">
+      <c r="H6" s="20" t="str">
         <f>LOOKUP(A6,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I6" s="4" t="str">
+      <c r="I6" s="20" t="str">
         <f>LOOKUP(B6,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -2434,11 +2418,11 @@
         <f t="shared" si="7"/>
         <v>6.3333333333333339</v>
       </c>
-      <c r="H7" s="4" t="str">
+      <c r="H7" s="20" t="str">
         <f>LOOKUP(A7,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I7" s="4" t="str">
+      <c r="I7" s="20" t="str">
         <f>LOOKUP(B7,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -2558,11 +2542,11 @@
         <f t="shared" si="7"/>
         <v>6.2166666666666668</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" s="5" t="str">
         <f>LOOKUP(A8,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I8" t="str">
+      <c r="I8" s="5" t="str">
         <f>LOOKUP(B8,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -2683,11 +2667,11 @@
         <f t="shared" si="7"/>
         <v>6.2166666666666668</v>
       </c>
-      <c r="H9" t="str">
+      <c r="H9" s="5" t="str">
         <f>LOOKUP(A9,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I9" t="str">
+      <c r="I9" s="5" t="str">
         <f>LOOKUP(B9,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -2808,11 +2792,11 @@
         <f t="shared" si="7"/>
         <v>6.2166666666666668</v>
       </c>
-      <c r="H10" t="str">
+      <c r="H10" s="5" t="str">
         <f>LOOKUP(A10,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I10" s="5" t="str">
         <f>LOOKUP(B10,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -2933,11 +2917,11 @@
         <f t="shared" si="7"/>
         <v>6.2166666666666668</v>
       </c>
-      <c r="H11" s="4" t="str">
+      <c r="H11" s="20" t="str">
         <f>LOOKUP(A11,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I11" s="4" t="str">
+      <c r="I11" s="20" t="str">
         <f>LOOKUP(B11,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -3058,11 +3042,11 @@
         <f t="shared" si="7"/>
         <v>6.2166666666666668</v>
       </c>
-      <c r="H12" s="4" t="str">
+      <c r="H12" s="20" t="str">
         <f>LOOKUP(A12,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I12" s="4" t="str">
+      <c r="I12" s="20" t="str">
         <f>LOOKUP(B12,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -3183,11 +3167,11 @@
         <f t="shared" si="7"/>
         <v>6.2166666666666668</v>
       </c>
-      <c r="H13" s="4" t="str">
+      <c r="H13" s="20" t="str">
         <f>LOOKUP(A13,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I13" s="4" t="str">
+      <c r="I13" s="20" t="str">
         <f>LOOKUP(B13,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -3308,11 +3292,11 @@
         <f t="shared" si="7"/>
         <v>6.2166666666666668</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14" s="5" t="str">
         <f>LOOKUP(A14,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I14" t="str">
+      <c r="I14" s="5" t="str">
         <f>LOOKUP(B14,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -3433,11 +3417,11 @@
         <f t="shared" si="7"/>
         <v>6.2166666666666668</v>
       </c>
-      <c r="H15" t="str">
+      <c r="H15" s="5" t="str">
         <f>LOOKUP(A15,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I15" t="str">
+      <c r="I15" s="5" t="str">
         <f>LOOKUP(B15,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -3558,11 +3542,11 @@
         <f t="shared" si="7"/>
         <v>6.2166666666666668</v>
       </c>
-      <c r="H16" t="str">
+      <c r="H16" s="5" t="str">
         <f>LOOKUP(A16,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I16" t="str">
+      <c r="I16" s="5" t="str">
         <f>LOOKUP(B16,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -3683,11 +3667,11 @@
         <f t="shared" si="7"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="H17" s="4" t="str">
+      <c r="H17" s="20" t="str">
         <f>LOOKUP(A17,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I17" s="4" t="str">
+      <c r="I17" s="20" t="str">
         <f>LOOKUP(B17,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -3807,11 +3791,11 @@
         <f t="shared" si="7"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="H18" s="4" t="str">
+      <c r="H18" s="20" t="str">
         <f>LOOKUP(A18,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I18" s="4" t="str">
+      <c r="I18" s="20" t="str">
         <f>LOOKUP(B18,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -3931,11 +3915,11 @@
         <f t="shared" si="7"/>
         <v>6.3000000000000007</v>
       </c>
-      <c r="H19" s="4" t="str">
+      <c r="H19" s="20" t="str">
         <f>LOOKUP(A19,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I19" s="4" t="str">
+      <c r="I19" s="20" t="str">
         <f>LOOKUP(B19,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -4055,11 +4039,11 @@
         <f t="shared" si="7"/>
         <v>6.5166666666666657</v>
       </c>
-      <c r="H20" t="str">
+      <c r="H20" s="5" t="str">
         <f>LOOKUP(A20,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I20" t="str">
+      <c r="I20" s="5" t="str">
         <f>LOOKUP(B20,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -4180,11 +4164,11 @@
         <f t="shared" si="7"/>
         <v>6.5166666666666657</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21" s="5" t="str">
         <f>LOOKUP(A21,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I21" t="str">
+      <c r="I21" s="5" t="str">
         <f>LOOKUP(B21,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -4305,11 +4289,11 @@
         <f t="shared" si="7"/>
         <v>6.5166666666666657</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H22" s="5" t="str">
         <f>LOOKUP(A22,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I22" t="str">
+      <c r="I22" s="5" t="str">
         <f>LOOKUP(B22,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -4430,11 +4414,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H23" s="4" t="str">
+      <c r="H23" s="20" t="str">
         <f>LOOKUP(A23,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I23" s="4" t="str">
+      <c r="I23" s="20" t="str">
         <f>LOOKUP(B23,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -4554,11 +4538,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H24" s="4" t="str">
+      <c r="H24" s="20" t="str">
         <f>LOOKUP(A24,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I24" s="4" t="str">
+      <c r="I24" s="20" t="str">
         <f>LOOKUP(B24,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -4678,11 +4662,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H25" s="4" t="str">
+      <c r="H25" s="20" t="str">
         <f>LOOKUP(A25,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I25" s="4" t="str">
+      <c r="I25" s="20" t="str">
         <f>LOOKUP(B25,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -4802,11 +4786,11 @@
         <f t="shared" si="7"/>
         <v>6.5666666666666664</v>
       </c>
-      <c r="H26" t="str">
+      <c r="H26" s="5" t="str">
         <f>LOOKUP(A26,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I26" t="str">
+      <c r="I26" s="5" t="str">
         <f>LOOKUP(B26,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -4927,11 +4911,11 @@
         <f t="shared" si="7"/>
         <v>6.5666666666666664</v>
       </c>
-      <c r="H27" t="str">
+      <c r="H27" s="5" t="str">
         <f>LOOKUP(A27,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I27" t="str">
+      <c r="I27" s="5" t="str">
         <f>LOOKUP(B27,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -5052,11 +5036,11 @@
         <f t="shared" si="7"/>
         <v>6.5666666666666664</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28" s="5" t="str">
         <f>LOOKUP(A28,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I28" t="str">
+      <c r="I28" s="5" t="str">
         <f>LOOKUP(B28,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -5177,11 +5161,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H29" s="4" t="str">
+      <c r="H29" s="20" t="str">
         <f>LOOKUP(A29,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I29" s="4" t="str">
+      <c r="I29" s="20" t="str">
         <f>LOOKUP(B29,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -5302,11 +5286,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H30" s="4" t="str">
+      <c r="H30" s="20" t="str">
         <f>LOOKUP(A30,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I30" s="4" t="str">
+      <c r="I30" s="20" t="str">
         <f>LOOKUP(B30,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -5427,11 +5411,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H31" s="4" t="str">
+      <c r="H31" s="20" t="str">
         <f>LOOKUP(A31,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I31" s="4" t="str">
+      <c r="I31" s="20" t="str">
         <f>LOOKUP(B31,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -5552,11 +5536,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H32" t="str">
+      <c r="H32" s="5" t="str">
         <f>LOOKUP(A32,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I32" t="str">
+      <c r="I32" s="5" t="str">
         <f>LOOKUP(B32,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -5677,11 +5661,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H33" t="str">
+      <c r="H33" s="5" t="str">
         <f>LOOKUP(A33,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I33" t="str">
+      <c r="I33" s="5" t="str">
         <f>LOOKUP(B33,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -5802,11 +5786,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H34" t="str">
+      <c r="H34" s="5" t="str">
         <f>LOOKUP(A34,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I34" t="str">
+      <c r="I34" s="5" t="str">
         <f>LOOKUP(B34,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -5927,11 +5911,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H35" s="4" t="str">
+      <c r="H35" s="20" t="str">
         <f>LOOKUP(A35,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I35" s="4" t="str">
+      <c r="I35" s="20" t="str">
         <f>LOOKUP(B35,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -6052,11 +6036,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H36" s="4" t="str">
+      <c r="H36" s="20" t="str">
         <f>LOOKUP(A36,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I36" s="4" t="str">
+      <c r="I36" s="20" t="str">
         <f>LOOKUP(B36,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -6177,11 +6161,11 @@
         <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
-      <c r="H37" s="4" t="str">
+      <c r="H37" s="20" t="str">
         <f>LOOKUP(A37,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I37" s="4" t="str">
+      <c r="I37" s="20" t="str">
         <f>LOOKUP(B37,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -6302,11 +6286,11 @@
         <f t="shared" si="7"/>
         <v>6.4499999999999993</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38" s="5" t="str">
         <f>LOOKUP(A38,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I38" t="str">
+      <c r="I38" s="5" t="str">
         <f>LOOKUP(B38,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -6427,11 +6411,11 @@
         <f t="shared" si="7"/>
         <v>6.4499999999999993</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H39" s="5" t="str">
         <f>LOOKUP(A39,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I39" t="str">
+      <c r="I39" s="5" t="str">
         <f>LOOKUP(B39,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -6552,11 +6536,11 @@
         <f t="shared" si="7"/>
         <v>6.4499999999999993</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H40" s="5" t="str">
         <f>LOOKUP(A40,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I40" t="str">
+      <c r="I40" s="5" t="str">
         <f>LOOKUP(B40,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -6677,11 +6661,11 @@
         <f t="shared" si="7"/>
         <v>6.6166666666666671</v>
       </c>
-      <c r="H41" s="4" t="str">
+      <c r="H41" s="20" t="str">
         <f>LOOKUP(A41,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I41" s="4" t="str">
+      <c r="I41" s="20" t="str">
         <f>LOOKUP(B41,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -6801,11 +6785,11 @@
         <f t="shared" si="7"/>
         <v>6.6166666666666671</v>
       </c>
-      <c r="H42" s="4" t="str">
+      <c r="H42" s="20" t="str">
         <f>LOOKUP(A42,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I42" s="4" t="str">
+      <c r="I42" s="20" t="str">
         <f>LOOKUP(B42,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -6925,11 +6909,11 @@
         <f t="shared" si="7"/>
         <v>6.6166666666666671</v>
       </c>
-      <c r="H43" s="4" t="str">
+      <c r="H43" s="20" t="str">
         <f>LOOKUP(A43,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I43" s="4" t="str">
+      <c r="I43" s="20" t="str">
         <f>LOOKUP(B43,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -7049,11 +7033,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H44" s="5" t="str">
         <f>LOOKUP(A44,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I44" t="str">
+      <c r="I44" s="5" t="str">
         <f>LOOKUP(B44,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -7173,11 +7157,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45" s="5" t="str">
         <f>LOOKUP(A45,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I45" t="str">
+      <c r="I45" s="5" t="str">
         <f>LOOKUP(B45,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -7297,11 +7281,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H46" s="5" t="str">
         <f>LOOKUP(A46,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I46" t="str">
+      <c r="I46" s="5" t="str">
         <f>LOOKUP(B46,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -7421,11 +7405,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H47" s="4" t="str">
+      <c r="H47" s="20" t="str">
         <f>LOOKUP(A47,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I47" s="4" t="str">
+      <c r="I47" s="20" t="str">
         <f>LOOKUP(B47,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -7545,11 +7529,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H48" s="4" t="str">
+      <c r="H48" s="20" t="str">
         <f>LOOKUP(A48,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I48" s="4" t="str">
+      <c r="I48" s="20" t="str">
         <f>LOOKUP(B48,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -7669,11 +7653,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H49" s="4" t="str">
+      <c r="H49" s="20" t="str">
         <f>LOOKUP(A49,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I49" s="4" t="str">
+      <c r="I49" s="20" t="str">
         <f>LOOKUP(B49,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -7793,11 +7777,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H50" s="5" t="str">
         <f>LOOKUP(A50,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I50" t="str">
+      <c r="I50" s="5" t="str">
         <f>LOOKUP(B50,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -7917,11 +7901,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H51" s="5" t="str">
         <f>LOOKUP(A51,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I51" t="str">
+      <c r="I51" s="5" t="str">
         <f>LOOKUP(B51,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -8041,11 +8025,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H52" t="str">
+      <c r="H52" s="5" t="str">
         <f>LOOKUP(A52,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I52" t="str">
+      <c r="I52" s="5" t="str">
         <f>LOOKUP(B52,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -8165,11 +8149,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H53" s="4" t="str">
+      <c r="H53" s="20" t="str">
         <f>LOOKUP(A53,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I53" s="4" t="str">
+      <c r="I53" s="20" t="str">
         <f>LOOKUP(B53,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -8289,11 +8273,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H54" s="4" t="str">
+      <c r="H54" s="20" t="str">
         <f>LOOKUP(A54,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I54" s="4" t="str">
+      <c r="I54" s="20" t="str">
         <f>LOOKUP(B54,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -8413,11 +8397,11 @@
         <f t="shared" si="7"/>
         <v>6.35</v>
       </c>
-      <c r="H55" s="4" t="str">
+      <c r="H55" s="20" t="str">
         <f>LOOKUP(A55,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'18.4"N</v>
       </c>
-      <c r="I55" s="4" t="str">
+      <c r="I55" s="20" t="str">
         <f>LOOKUP(B55,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'54.9"W</v>
       </c>
@@ -8537,11 +8521,11 @@
         <f t="shared" si="7"/>
         <v>8.5333333333333332</v>
       </c>
-      <c r="H56" t="str">
+      <c r="H56" s="5" t="str">
         <f>LOOKUP(A56,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I56" t="str">
+      <c r="I56" s="5" t="str">
         <f>LOOKUP(B56,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -8662,11 +8646,11 @@
         <f t="shared" si="7"/>
         <v>8.5333333333333332</v>
       </c>
-      <c r="H57" t="str">
+      <c r="H57" s="5" t="str">
         <f>LOOKUP(A57,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I57" t="str">
+      <c r="I57" s="5" t="str">
         <f>LOOKUP(B57,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -8787,11 +8771,11 @@
         <f t="shared" si="7"/>
         <v>8.5333333333333332</v>
       </c>
-      <c r="H58" t="str">
+      <c r="H58" s="5" t="str">
         <f>LOOKUP(A58,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I58" t="str">
+      <c r="I58" s="5" t="str">
         <f>LOOKUP(B58,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -8912,11 +8896,11 @@
         <f t="shared" si="7"/>
         <v>8.5333333333333332</v>
       </c>
-      <c r="H59" s="4" t="str">
+      <c r="H59" s="20" t="str">
         <f>LOOKUP(A59,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I59" s="4" t="str">
+      <c r="I59" s="20" t="str">
         <f>LOOKUP(B59,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -9037,11 +9021,11 @@
         <f t="shared" si="7"/>
         <v>8.5333333333333332</v>
       </c>
-      <c r="H60" s="4" t="str">
+      <c r="H60" s="20" t="str">
         <f>LOOKUP(A60,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I60" s="4" t="str">
+      <c r="I60" s="20" t="str">
         <f>LOOKUP(B60,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -9162,11 +9146,11 @@
         <f t="shared" si="7"/>
         <v>8.5333333333333332</v>
       </c>
-      <c r="H61" s="4" t="str">
+      <c r="H61" s="20" t="str">
         <f>LOOKUP(A61,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I61" s="4" t="str">
+      <c r="I61" s="20" t="str">
         <f>LOOKUP(B61,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -9287,11 +9271,11 @@
         <f t="shared" si="7"/>
         <v>8.5333333333333332</v>
       </c>
-      <c r="H62" t="str">
+      <c r="H62" s="5" t="str">
         <f>LOOKUP(A62,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I62" t="str">
+      <c r="I62" s="5" t="str">
         <f>LOOKUP(B62,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -9412,11 +9396,11 @@
         <f t="shared" si="7"/>
         <v>8.5333333333333332</v>
       </c>
-      <c r="H63" t="str">
+      <c r="H63" s="5" t="str">
         <f>LOOKUP(A63,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I63" t="str">
+      <c r="I63" s="5" t="str">
         <f>LOOKUP(B63,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -9537,11 +9521,11 @@
         <f t="shared" si="7"/>
         <v>8.5333333333333332</v>
       </c>
-      <c r="H64" t="str">
+      <c r="H64" s="5" t="str">
         <f>LOOKUP(A64,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I64" t="str">
+      <c r="I64" s="5" t="str">
         <f>LOOKUP(B64,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -9662,11 +9646,11 @@
         <f t="shared" si="7"/>
         <v>7.7666666666666675</v>
       </c>
-      <c r="H65" s="4" t="str">
+      <c r="H65" s="20" t="str">
         <f>LOOKUP(A65,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I65" s="4" t="str">
+      <c r="I65" s="20" t="str">
         <f>LOOKUP(B65,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -9786,11 +9770,11 @@
         <f t="shared" si="7"/>
         <v>7.7666666666666675</v>
       </c>
-      <c r="H66" s="4" t="str">
+      <c r="H66" s="20" t="str">
         <f>LOOKUP(A66,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I66" s="4" t="str">
+      <c r="I66" s="20" t="str">
         <f>LOOKUP(B66,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -9911,11 +9895,11 @@
         <f t="shared" ref="G67:G130" si="25">F67*24</f>
         <v>7.7666666666666675</v>
       </c>
-      <c r="H67" s="4" t="str">
+      <c r="H67" s="20" t="str">
         <f>LOOKUP(A67,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°06'52.3"N</v>
       </c>
-      <c r="I67" s="4" t="str">
+      <c r="I67" s="20" t="str">
         <f>LOOKUP(B67,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°06'48.3"W</v>
       </c>
@@ -10036,11 +10020,11 @@
         <f t="shared" si="25"/>
         <v>8.4166666666666661</v>
       </c>
-      <c r="H68" t="str">
+      <c r="H68" s="5" t="str">
         <f>LOOKUP(A68,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°12'51.3"N</v>
       </c>
-      <c r="I68" t="str">
+      <c r="I68" s="5" t="str">
         <f>LOOKUP(B68,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°12'48.4"W</v>
       </c>
@@ -10160,11 +10144,11 @@
         <f t="shared" si="25"/>
         <v>8.4166666666666661</v>
       </c>
-      <c r="H69" t="str">
+      <c r="H69" s="5" t="str">
         <f>LOOKUP(A69,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°12'51.3"N</v>
       </c>
-      <c r="I69" t="str">
+      <c r="I69" s="5" t="str">
         <f>LOOKUP(B69,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°12'48.4"W</v>
       </c>
@@ -10285,11 +10269,11 @@
         <f t="shared" si="25"/>
         <v>8.4166666666666661</v>
       </c>
-      <c r="H70" t="str">
+      <c r="H70" s="5" t="str">
         <f>LOOKUP(A70,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°12'51.3"N</v>
       </c>
-      <c r="I70" t="str">
+      <c r="I70" s="5" t="str">
         <f>LOOKUP(B70,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°12'48.4"W</v>
       </c>
@@ -10410,11 +10394,11 @@
         <f t="shared" si="25"/>
         <v>8.4166666666666661</v>
       </c>
-      <c r="H71" s="4" t="str">
+      <c r="H71" s="20" t="str">
         <f>LOOKUP(A71,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°12'51.3"N</v>
       </c>
-      <c r="I71" s="4" t="str">
+      <c r="I71" s="20" t="str">
         <f>LOOKUP(B71,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°12'48.4"W</v>
       </c>
@@ -10535,11 +10519,11 @@
         <f t="shared" si="25"/>
         <v>8.4166666666666661</v>
       </c>
-      <c r="H72" s="4" t="str">
+      <c r="H72" s="20" t="str">
         <f>LOOKUP(A72,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°12'51.3"N</v>
       </c>
-      <c r="I72" s="4" t="str">
+      <c r="I72" s="20" t="str">
         <f>LOOKUP(B72,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°12'48.4"W</v>
       </c>
@@ -10660,11 +10644,11 @@
         <f t="shared" si="25"/>
         <v>8.4166666666666661</v>
       </c>
-      <c r="H73" s="4" t="str">
+      <c r="H73" s="20" t="str">
         <f>LOOKUP(A73,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°12'51.3"N</v>
       </c>
-      <c r="I73" s="4" t="str">
+      <c r="I73" s="20" t="str">
         <f>LOOKUP(B73,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°12'48.4"W</v>
       </c>
@@ -10785,11 +10769,11 @@
         <f t="shared" si="25"/>
         <v>8.4166666666666661</v>
       </c>
-      <c r="H74" t="str">
+      <c r="H74" s="5" t="str">
         <f>LOOKUP(A74,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°12'51.3"N</v>
       </c>
-      <c r="I74" t="str">
+      <c r="I74" s="5" t="str">
         <f>LOOKUP(B74,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°12'48.4"W</v>
       </c>
@@ -10910,11 +10894,11 @@
         <f t="shared" si="25"/>
         <v>8.4166666666666661</v>
       </c>
-      <c r="H75" t="str">
+      <c r="H75" s="5" t="str">
         <f>LOOKUP(A75,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°12'51.3"N</v>
       </c>
-      <c r="I75" t="str">
+      <c r="I75" s="5" t="str">
         <f>LOOKUP(B75,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°12'48.4"W</v>
       </c>
@@ -11034,11 +11018,11 @@
         <f t="shared" si="25"/>
         <v>8.4166666666666661</v>
       </c>
-      <c r="H76" t="str">
+      <c r="H76" s="5" t="str">
         <f>LOOKUP(A76,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°12'51.3"N</v>
       </c>
-      <c r="I76" t="str">
+      <c r="I76" s="5" t="str">
         <f>LOOKUP(B76,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°12'48.4"W</v>
       </c>
@@ -11159,11 +11143,11 @@
         <f t="shared" si="25"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H77" s="4" t="str">
+      <c r="H77" s="20" t="str">
         <f>LOOKUP(A77,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I77" s="4" t="str">
+      <c r="I77" s="20" t="str">
         <f>LOOKUP(B77,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -11284,11 +11268,11 @@
         <f t="shared" si="25"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H78" s="4" t="str">
+      <c r="H78" s="20" t="str">
         <f>LOOKUP(A78,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I78" s="4" t="str">
+      <c r="I78" s="20" t="str">
         <f>LOOKUP(B78,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -11409,11 +11393,11 @@
         <f t="shared" si="25"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H79" s="4" t="str">
+      <c r="H79" s="20" t="str">
         <f>LOOKUP(A79,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I79" s="4" t="str">
+      <c r="I79" s="20" t="str">
         <f>LOOKUP(B79,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -11534,11 +11518,11 @@
         <f t="shared" si="25"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H80" t="str">
+      <c r="H80" s="5" t="str">
         <f>LOOKUP(A80,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I80" t="str">
+      <c r="I80" s="5" t="str">
         <f>LOOKUP(B80,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -11659,11 +11643,11 @@
         <f t="shared" si="25"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H81" t="str">
+      <c r="H81" s="5" t="str">
         <f>LOOKUP(A81,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I81" t="str">
+      <c r="I81" s="5" t="str">
         <f>LOOKUP(B81,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -11784,11 +11768,11 @@
         <f t="shared" si="25"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H82" t="str">
+      <c r="H82" s="5" t="str">
         <f>LOOKUP(A82,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I82" t="str">
+      <c r="I82" s="5" t="str">
         <f>LOOKUP(B82,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -11909,11 +11893,11 @@
         <f t="shared" si="25"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H83" s="4" t="str">
+      <c r="H83" s="20" t="str">
         <f>LOOKUP(A83,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I83" s="4" t="str">
+      <c r="I83" s="20" t="str">
         <f>LOOKUP(B83,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -12034,11 +12018,11 @@
         <f t="shared" si="25"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H84" s="4" t="str">
+      <c r="H84" s="20" t="str">
         <f>LOOKUP(A84,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I84" s="4" t="str">
+      <c r="I84" s="20" t="str">
         <f>LOOKUP(B84,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -12159,11 +12143,11 @@
         <f t="shared" si="25"/>
         <v>7.8000000000000007</v>
       </c>
-      <c r="H85" s="4" t="str">
+      <c r="H85" s="20" t="str">
         <f>LOOKUP(A85,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'57.4"N</v>
       </c>
-      <c r="I85" s="4" t="str">
+      <c r="I85" s="20" t="str">
         <f>LOOKUP(B85,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'44.9"W</v>
       </c>
@@ -12284,11 +12268,11 @@
         <f t="shared" si="25"/>
         <v>8.3833333333333329</v>
       </c>
-      <c r="H86" t="str">
+      <c r="H86" s="5" t="str">
         <f>LOOKUP(A86,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.9"N</v>
       </c>
-      <c r="I86" t="str">
+      <c r="I86" s="5" t="str">
         <f>LOOKUP(B86,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -12408,11 +12392,11 @@
         <f t="shared" si="25"/>
         <v>8.3833333333333329</v>
       </c>
-      <c r="H87" t="str">
+      <c r="H87" s="5" t="str">
         <f>LOOKUP(A87,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.9"N</v>
       </c>
-      <c r="I87" t="str">
+      <c r="I87" s="5" t="str">
         <f>LOOKUP(B87,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -12532,11 +12516,11 @@
         <f t="shared" si="25"/>
         <v>8.3833333333333329</v>
       </c>
-      <c r="H88" t="str">
+      <c r="H88" s="5" t="str">
         <f>LOOKUP(A88,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.9"N</v>
       </c>
-      <c r="I88" t="str">
+      <c r="I88" s="5" t="str">
         <f>LOOKUP(B88,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -12656,11 +12640,11 @@
         <f t="shared" si="25"/>
         <v>8.3833333333333329</v>
       </c>
-      <c r="H89" s="4" t="str">
+      <c r="H89" s="20" t="str">
         <f>LOOKUP(A89,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.9"N</v>
       </c>
-      <c r="I89" s="4" t="str">
+      <c r="I89" s="20" t="str">
         <f>LOOKUP(B89,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -12780,11 +12764,11 @@
         <f t="shared" si="25"/>
         <v>8.3833333333333329</v>
       </c>
-      <c r="H90" s="4" t="str">
+      <c r="H90" s="20" t="str">
         <f>LOOKUP(A90,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.9"N</v>
       </c>
-      <c r="I90" s="4" t="str">
+      <c r="I90" s="20" t="str">
         <f>LOOKUP(B90,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -12904,11 +12888,11 @@
         <f t="shared" si="25"/>
         <v>8.3833333333333329</v>
       </c>
-      <c r="H91" s="4" t="str">
+      <c r="H91" s="20" t="str">
         <f>LOOKUP(A91,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.9"N</v>
       </c>
-      <c r="I91" s="4" t="str">
+      <c r="I91" s="20" t="str">
         <f>LOOKUP(B91,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -13028,11 +13012,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H92" t="str">
+      <c r="H92" s="5" t="str">
         <f>LOOKUP(A92,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I92" t="str">
+      <c r="I92" s="5" t="str">
         <f>LOOKUP(B92,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -13153,11 +13137,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H93" t="str">
+      <c r="H93" s="5" t="str">
         <f>LOOKUP(A93,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I93" t="str">
+      <c r="I93" s="5" t="str">
         <f>LOOKUP(B93,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -13278,11 +13262,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H94" t="str">
+      <c r="H94" s="5" t="str">
         <f>LOOKUP(A94,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I94" t="str">
+      <c r="I94" s="5" t="str">
         <f>LOOKUP(B94,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -13403,11 +13387,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H95" s="4" t="str">
+      <c r="H95" s="20" t="str">
         <f>LOOKUP(A95,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I95" s="4" t="str">
+      <c r="I95" s="20" t="str">
         <f>LOOKUP(B95,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -13528,11 +13512,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H96" s="4" t="str">
+      <c r="H96" s="20" t="str">
         <f>LOOKUP(A96,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I96" s="4" t="str">
+      <c r="I96" s="20" t="str">
         <f>LOOKUP(B96,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -13652,11 +13636,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H97" s="4" t="str">
+      <c r="H97" s="20" t="str">
         <f>LOOKUP(A97,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I97" s="4" t="str">
+      <c r="I97" s="20" t="str">
         <f>LOOKUP(B97,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -13777,11 +13761,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H98" t="str">
+      <c r="H98" s="5" t="str">
         <f>LOOKUP(A98,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I98" t="str">
+      <c r="I98" s="5" t="str">
         <f>LOOKUP(B98,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -13902,11 +13886,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H99" t="str">
+      <c r="H99" s="5" t="str">
         <f>LOOKUP(A99,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I99" t="str">
+      <c r="I99" s="5" t="str">
         <f>LOOKUP(B99,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -14027,11 +14011,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H100" t="str">
+      <c r="H100" s="5" t="str">
         <f>LOOKUP(A100,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I100" t="str">
+      <c r="I100" s="5" t="str">
         <f>LOOKUP(B100,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -14152,11 +14136,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H101" s="4" t="str">
+      <c r="H101" s="20" t="str">
         <f>LOOKUP(A101,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I101" s="4" t="str">
+      <c r="I101" s="20" t="str">
         <f>LOOKUP(B101,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -14277,11 +14261,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H102" s="4" t="str">
+      <c r="H102" s="20" t="str">
         <f>LOOKUP(A102,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I102" s="4" t="str">
+      <c r="I102" s="20" t="str">
         <f>LOOKUP(B102,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -14402,11 +14386,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H103" s="4" t="str">
+      <c r="H103" s="20" t="str">
         <f>LOOKUP(A103,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I103" s="4" t="str">
+      <c r="I103" s="20" t="str">
         <f>LOOKUP(B103,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -14527,11 +14511,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H104" t="str">
+      <c r="H104" s="5" t="str">
         <f>LOOKUP(A104,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I104" t="str">
+      <c r="I104" s="5" t="str">
         <f>LOOKUP(B104,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -14652,11 +14636,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H105" t="str">
+      <c r="H105" s="5" t="str">
         <f>LOOKUP(A105,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I105" t="str">
+      <c r="I105" s="5" t="str">
         <f>LOOKUP(B105,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -14777,11 +14761,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H106" t="str">
+      <c r="H106" s="5" t="str">
         <f>LOOKUP(A106,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I106" t="str">
+      <c r="I106" s="5" t="str">
         <f>LOOKUP(B106,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -14902,11 +14886,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H107" s="4" t="str">
+      <c r="H107" s="20" t="str">
         <f>LOOKUP(A107,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I107" s="4" t="str">
+      <c r="I107" s="20" t="str">
         <f>LOOKUP(B107,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -15027,11 +15011,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H108" s="4" t="str">
+      <c r="H108" s="20" t="str">
         <f>LOOKUP(A108,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I108" s="4" t="str">
+      <c r="I108" s="20" t="str">
         <f>LOOKUP(B108,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -15152,11 +15136,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H109" s="4" t="str">
+      <c r="H109" s="20" t="str">
         <f>LOOKUP(A109,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I109" s="4" t="str">
+      <c r="I109" s="20" t="str">
         <f>LOOKUP(B109,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -15277,11 +15261,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H110" t="str">
+      <c r="H110" s="5" t="str">
         <f>LOOKUP(A110,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I110" t="str">
+      <c r="I110" s="5" t="str">
         <f>LOOKUP(B110,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -15402,11 +15386,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H111" t="str">
+      <c r="H111" s="5" t="str">
         <f>LOOKUP(A111,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I111" t="str">
+      <c r="I111" s="5" t="str">
         <f>LOOKUP(B111,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -15527,11 +15511,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H112" t="str">
+      <c r="H112" s="5" t="str">
         <f>LOOKUP(A112,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I112" t="str">
+      <c r="I112" s="5" t="str">
         <f>LOOKUP(B112,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -15652,11 +15636,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H113" s="4" t="str">
+      <c r="H113" s="20" t="str">
         <f>LOOKUP(A113,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I113" s="4" t="str">
+      <c r="I113" s="20" t="str">
         <f>LOOKUP(B113,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -15777,11 +15761,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H114" s="4" t="str">
+      <c r="H114" s="20" t="str">
         <f>LOOKUP(A114,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I114" s="4" t="str">
+      <c r="I114" s="20" t="str">
         <f>LOOKUP(B114,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -15902,11 +15886,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H115" s="4" t="str">
+      <c r="H115" s="20" t="str">
         <f>LOOKUP(A115,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I115" s="4" t="str">
+      <c r="I115" s="20" t="str">
         <f>LOOKUP(B115,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -16027,11 +16011,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H116" t="str">
+      <c r="H116" s="5" t="str">
         <f>LOOKUP(A116,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I116" t="str">
+      <c r="I116" s="5" t="str">
         <f>LOOKUP(B116,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -16152,11 +16136,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H117" t="str">
+      <c r="H117" s="5" t="str">
         <f>LOOKUP(A117,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I117" t="str">
+      <c r="I117" s="5" t="str">
         <f>LOOKUP(B117,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -16277,11 +16261,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H118" t="str">
+      <c r="H118" s="5" t="str">
         <f>LOOKUP(A118,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I118" t="str">
+      <c r="I118" s="5" t="str">
         <f>LOOKUP(B118,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -16402,11 +16386,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H119" s="4" t="str">
+      <c r="H119" s="20" t="str">
         <f>LOOKUP(A119,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I119" s="4" t="str">
+      <c r="I119" s="20" t="str">
         <f>LOOKUP(B119,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -16527,11 +16511,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H120" s="4" t="str">
+      <c r="H120" s="20" t="str">
         <f>LOOKUP(A120,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I120" s="4" t="str">
+      <c r="I120" s="20" t="str">
         <f>LOOKUP(B120,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -16652,11 +16636,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H121" s="4" t="str">
+      <c r="H121" s="20" t="str">
         <f>LOOKUP(A121,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I121" s="4" t="str">
+      <c r="I121" s="20" t="str">
         <f>LOOKUP(B121,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -16777,11 +16761,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H122" t="str">
+      <c r="H122" s="5" t="str">
         <f>LOOKUP(A122,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I122" t="str">
+      <c r="I122" s="5" t="str">
         <f>LOOKUP(B122,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -16902,11 +16886,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H123" t="str">
+      <c r="H123" s="5" t="str">
         <f>LOOKUP(A123,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I123" t="str">
+      <c r="I123" s="5" t="str">
         <f>LOOKUP(B123,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -17027,11 +17011,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H124" t="str">
+      <c r="H124" s="5" t="str">
         <f>LOOKUP(A124,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I124" t="str">
+      <c r="I124" s="5" t="str">
         <f>LOOKUP(B124,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -17152,11 +17136,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H125" s="4" t="str">
+      <c r="H125" s="20" t="str">
         <f>LOOKUP(A125,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I125" s="4" t="str">
+      <c r="I125" s="20" t="str">
         <f>LOOKUP(B125,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -17277,11 +17261,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H126" s="4" t="str">
+      <c r="H126" s="20" t="str">
         <f>LOOKUP(A126,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I126" s="4" t="str">
+      <c r="I126" s="20" t="str">
         <f>LOOKUP(B126,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -17402,11 +17386,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H127" s="4" t="str">
+      <c r="H127" s="20" t="str">
         <f>LOOKUP(A127,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I127" s="4" t="str">
+      <c r="I127" s="20" t="str">
         <f>LOOKUP(B127,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -17527,11 +17511,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H128" t="e">
-        <f>'PATHWAY ANALYSIS'!D1=LOOKUP(A2,DATA [1]SHEET!$A$2:$A$250,INDEX!$F$2:$F$28)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I128" t="str">
+      <c r="H128" s="5" t="str">
+        <f>LOOKUP(A128,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
+        <v>43°10'40.0"N</v>
+      </c>
+      <c r="I128" s="5" t="str">
         <f>LOOKUP(B128,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -17652,11 +17636,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H129" t="str">
+      <c r="H129" s="5" t="str">
         <f>LOOKUP(A129,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I129" t="str">
+      <c r="I129" s="5" t="str">
         <f>LOOKUP(B129,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -17777,11 +17761,11 @@
         <f t="shared" si="25"/>
         <v>8.6333333333333329</v>
       </c>
-      <c r="H130" t="str">
+      <c r="H130" s="5" t="str">
         <f>LOOKUP(A130,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I130" t="str">
+      <c r="I130" s="5" t="str">
         <f>LOOKUP(B130,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.0"W</v>
       </c>
@@ -17902,11 +17886,11 @@
         <f t="shared" ref="G131:G195" si="35">F131*24</f>
         <v>7.5</v>
       </c>
-      <c r="H131" s="4" t="str">
+      <c r="H131" s="20" t="str">
         <f>LOOKUP(A131,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.5"N</v>
       </c>
-      <c r="I131" s="4" t="str">
+      <c r="I131" s="20" t="str">
         <f>LOOKUP(B131,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -18026,11 +18010,11 @@
         <f t="shared" si="35"/>
         <v>7.5</v>
       </c>
-      <c r="H132" s="4" t="str">
+      <c r="H132" s="20" t="str">
         <f>LOOKUP(A132,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.5"N</v>
       </c>
-      <c r="I132" s="4" t="str">
+      <c r="I132" s="20" t="str">
         <f>LOOKUP(B132,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -18150,11 +18134,11 @@
         <f t="shared" si="35"/>
         <v>7.5</v>
       </c>
-      <c r="H133" s="4" t="str">
+      <c r="H133" s="20" t="str">
         <f>LOOKUP(A133,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.5"N</v>
       </c>
-      <c r="I133" s="4" t="str">
+      <c r="I133" s="20" t="str">
         <f>LOOKUP(B133,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -18274,11 +18258,11 @@
         <f t="shared" si="35"/>
         <v>7.5</v>
       </c>
-      <c r="H134" t="str">
+      <c r="H134" s="5" t="str">
         <f>LOOKUP(A134,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.5"N</v>
       </c>
-      <c r="I134" t="str">
+      <c r="I134" s="5" t="str">
         <f>LOOKUP(B134,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -18398,11 +18382,11 @@
         <f t="shared" si="35"/>
         <v>7.5</v>
       </c>
-      <c r="H135" t="str">
+      <c r="H135" s="5" t="str">
         <f>LOOKUP(A135,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.5"N</v>
       </c>
-      <c r="I135" t="str">
+      <c r="I135" s="5" t="str">
         <f>LOOKUP(B135,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -18522,11 +18506,11 @@
         <f t="shared" si="35"/>
         <v>7.5</v>
       </c>
-      <c r="H136" t="str">
+      <c r="H136" s="5" t="str">
         <f>LOOKUP(A136,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'42.5"N</v>
       </c>
-      <c r="I136" t="str">
+      <c r="I136" s="5" t="str">
         <f>LOOKUP(B136,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -18646,11 +18630,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H137" s="4" t="str">
+      <c r="H137" s="20" t="str">
         <f>LOOKUP(A137,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I137" s="4" t="str">
+      <c r="I137" s="20" t="str">
         <f>LOOKUP(B137,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -18771,11 +18755,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H138" s="4" t="str">
+      <c r="H138" s="20" t="str">
         <f>LOOKUP(A138,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I138" s="4" t="str">
+      <c r="I138" s="20" t="str">
         <f>LOOKUP(B138,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -18896,11 +18880,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H139" s="4" t="str">
+      <c r="H139" s="20" t="str">
         <f>LOOKUP(A139,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I139" s="4" t="str">
+      <c r="I139" s="20" t="str">
         <f>LOOKUP(B139,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -19021,11 +19005,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H140" t="str">
+      <c r="H140" s="5" t="str">
         <f>LOOKUP(A140,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I140" t="str">
+      <c r="I140" s="5" t="str">
         <f>LOOKUP(B140,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -19146,11 +19130,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H141" t="str">
+      <c r="H141" s="5" t="str">
         <f>LOOKUP(A141,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I141" t="str">
+      <c r="I141" s="5" t="str">
         <f>LOOKUP(B141,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -19271,11 +19255,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H142" t="str">
+      <c r="H142" s="5" t="str">
         <f>LOOKUP(A142,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I142" t="str">
+      <c r="I142" s="5" t="str">
         <f>LOOKUP(B142,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -19396,11 +19380,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H143" s="4" t="str">
+      <c r="H143" s="20" t="str">
         <f>LOOKUP(A143,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I143" s="4" t="str">
+      <c r="I143" s="20" t="str">
         <f>LOOKUP(B143,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -19521,11 +19505,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H144" s="4" t="str">
+      <c r="H144" s="20" t="str">
         <f>LOOKUP(A144,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I144" s="4" t="str">
+      <c r="I144" s="20" t="str">
         <f>LOOKUP(B144,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -19646,11 +19630,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H145" s="4" t="str">
+      <c r="H145" s="20" t="str">
         <f>LOOKUP(A145,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I145" s="4" t="str">
+      <c r="I145" s="20" t="str">
         <f>LOOKUP(B145,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -19771,11 +19755,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H146" t="str">
+      <c r="H146" s="5" t="str">
         <f>LOOKUP(A146,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I146" t="str">
+      <c r="I146" s="5" t="str">
         <f>LOOKUP(B146,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -19896,11 +19880,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H147" t="str">
+      <c r="H147" s="5" t="str">
         <f>LOOKUP(A147,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I147" t="str">
+      <c r="I147" s="5" t="str">
         <f>LOOKUP(B147,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -20021,11 +20005,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H148" t="str">
+      <c r="H148" s="5" t="str">
         <f>LOOKUP(A148,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I148" t="str">
+      <c r="I148" s="5" t="str">
         <f>LOOKUP(B148,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -20146,11 +20130,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H149" s="4" t="str">
+      <c r="H149" s="20" t="str">
         <f>LOOKUP(A149,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I149" s="4" t="str">
+      <c r="I149" s="20" t="str">
         <f>LOOKUP(B149,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -20271,11 +20255,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H150" s="4" t="str">
+      <c r="H150" s="20" t="str">
         <f>LOOKUP(A150,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I150" s="4" t="str">
+      <c r="I150" s="20" t="str">
         <f>LOOKUP(B150,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -20396,11 +20380,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H151" s="4" t="str">
+      <c r="H151" s="20" t="str">
         <f>LOOKUP(A151,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I151" s="4" t="str">
+      <c r="I151" s="20" t="str">
         <f>LOOKUP(B151,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -20521,11 +20505,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H152" t="str">
+      <c r="H152" s="5" t="str">
         <f>LOOKUP(A152,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I152" t="str">
+      <c r="I152" s="5" t="str">
         <f>LOOKUP(B152,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -20646,11 +20630,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H153" t="str">
+      <c r="H153" s="5" t="str">
         <f>LOOKUP(A153,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I153" t="str">
+      <c r="I153" s="5" t="str">
         <f>LOOKUP(B153,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -20771,11 +20755,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H154" t="str">
+      <c r="H154" s="5" t="str">
         <f>LOOKUP(A154,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I154" t="str">
+      <c r="I154" s="5" t="str">
         <f>LOOKUP(B154,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -20896,11 +20880,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H155" s="4" t="str">
+      <c r="H155" s="20" t="str">
         <f>LOOKUP(A155,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I155" s="4" t="str">
+      <c r="I155" s="20" t="str">
         <f>LOOKUP(B155,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -21021,11 +21005,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H156" s="4" t="str">
+      <c r="H156" s="20" t="str">
         <f>LOOKUP(A156,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I156" s="4" t="str">
+      <c r="I156" s="20" t="str">
         <f>LOOKUP(B156,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -21146,11 +21130,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H157" s="4" t="str">
+      <c r="H157" s="20" t="str">
         <f>LOOKUP(A157,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I157" s="4" t="str">
+      <c r="I157" s="20" t="str">
         <f>LOOKUP(B157,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -21271,11 +21255,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H158" t="str">
+      <c r="H158" s="5" t="str">
         <f>LOOKUP(A158,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I158" t="str">
+      <c r="I158" s="5" t="str">
         <f>LOOKUP(B158,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -21396,11 +21380,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H159" t="str">
+      <c r="H159" s="5" t="str">
         <f>LOOKUP(A159,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I159" t="str">
+      <c r="I159" s="5" t="str">
         <f>LOOKUP(B159,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -21520,11 +21504,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H160" t="str">
+      <c r="H160" s="5" t="str">
         <f>LOOKUP(A160,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I160" t="str">
+      <c r="I160" s="5" t="str">
         <f>LOOKUP(B160,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -21645,11 +21629,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H161" s="4" t="str">
+      <c r="H161" s="20" t="str">
         <f>LOOKUP(A161,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I161" s="4" t="str">
+      <c r="I161" s="20" t="str">
         <f>LOOKUP(B161,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -21770,11 +21754,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H162" s="4" t="str">
+      <c r="H162" s="20" t="str">
         <f>LOOKUP(A162,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I162" s="4" t="str">
+      <c r="I162" s="20" t="str">
         <f>LOOKUP(B162,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -21895,11 +21879,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H163" s="4" t="str">
+      <c r="H163" s="20" t="str">
         <f>LOOKUP(A163,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I163" s="4" t="str">
+      <c r="I163" s="20" t="str">
         <f>LOOKUP(B163,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -22020,11 +22004,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H164" t="str">
+      <c r="H164" s="5" t="str">
         <f>LOOKUP(A164,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I164" t="str">
+      <c r="I164" s="5" t="str">
         <f>LOOKUP(B164,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -22145,11 +22129,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H165" t="str">
+      <c r="H165" s="5" t="str">
         <f>LOOKUP(A165,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I165" t="str">
+      <c r="I165" s="5" t="str">
         <f>LOOKUP(B165,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -22270,11 +22254,11 @@
         <f t="shared" si="35"/>
         <v>7.6666666666666679</v>
       </c>
-      <c r="H166" t="str">
+      <c r="H166" s="5" t="str">
         <f>LOOKUP(A166,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'40.0"N</v>
       </c>
-      <c r="I166" t="str">
+      <c r="I166" s="5" t="str">
         <f>LOOKUP(B166,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'21.1"W</v>
       </c>
@@ -22395,11 +22379,11 @@
         <f t="shared" si="35"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="H167" s="4" t="str">
+      <c r="H167" s="20" t="str">
         <f>LOOKUP(A167,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°08'23.0"N </v>
       </c>
-      <c r="I167" s="4" t="str">
+      <c r="I167" s="20" t="str">
         <f>LOOKUP(B167,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'14.4"W</v>
       </c>
@@ -22519,11 +22503,11 @@
         <f t="shared" si="35"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="H168" s="4" t="str">
+      <c r="H168" s="20" t="str">
         <f>LOOKUP(A168,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°08'23.0"N </v>
       </c>
-      <c r="I168" s="4" t="str">
+      <c r="I168" s="20" t="str">
         <f>LOOKUP(B168,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'14.4"W</v>
       </c>
@@ -22643,11 +22627,11 @@
         <f t="shared" si="35"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="H169" s="4" t="str">
+      <c r="H169" s="20" t="str">
         <f>LOOKUP(A169,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°08'23.0"N </v>
       </c>
-      <c r="I169" s="4" t="str">
+      <c r="I169" s="20" t="str">
         <f>LOOKUP(B169,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'14.4"W</v>
       </c>
@@ -22767,11 +22751,11 @@
         <f t="shared" si="35"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="H170" t="str">
+      <c r="H170" s="5" t="str">
         <f>LOOKUP(A170,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°08'23.0"N </v>
       </c>
-      <c r="I170" t="str">
+      <c r="I170" s="5" t="str">
         <f>LOOKUP(B170,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'14.4"W</v>
       </c>
@@ -22891,11 +22875,11 @@
         <f t="shared" si="35"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="H171" t="str">
+      <c r="H171" s="5" t="str">
         <f>LOOKUP(A171,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°08'23.0"N </v>
       </c>
-      <c r="I171" t="str">
+      <c r="I171" s="5" t="str">
         <f>LOOKUP(B171,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'14.4"W</v>
       </c>
@@ -23015,11 +22999,11 @@
         <f t="shared" si="35"/>
         <v>8.3333333333333339</v>
       </c>
-      <c r="H172" t="str">
+      <c r="H172" s="5" t="str">
         <f>LOOKUP(A172,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°08'23.0"N </v>
       </c>
-      <c r="I172" t="str">
+      <c r="I172" s="5" t="str">
         <f>LOOKUP(B172,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'14.4"W</v>
       </c>
@@ -23139,11 +23123,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H173" s="4" t="str">
+      <c r="H173" s="20" t="str">
         <f>LOOKUP(A173,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I173" s="4" t="str">
+      <c r="I173" s="20" t="str">
         <f>LOOKUP(B173,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -23264,11 +23248,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H174" s="4" t="str">
+      <c r="H174" s="20" t="str">
         <f>LOOKUP(A174,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I174" s="4" t="str">
+      <c r="I174" s="20" t="str">
         <f>LOOKUP(B174,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -23388,11 +23372,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H175" s="4" t="str">
+      <c r="H175" s="20" t="str">
         <f>LOOKUP(A175,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I175" s="4" t="str">
+      <c r="I175" s="20" t="str">
         <f>LOOKUP(B175,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -23513,11 +23497,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H176" t="str">
+      <c r="H176" s="5" t="str">
         <f>LOOKUP(A176,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I176" t="str">
+      <c r="I176" s="5" t="str">
         <f>LOOKUP(B176,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -23638,11 +23622,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H177" t="str">
+      <c r="H177" s="5" t="str">
         <f>LOOKUP(A177,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I177" t="str">
+      <c r="I177" s="5" t="str">
         <f>LOOKUP(B177,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -23763,11 +23747,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H178" t="str">
+      <c r="H178" s="5" t="str">
         <f>LOOKUP(A178,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I178" t="str">
+      <c r="I178" s="5" t="str">
         <f>LOOKUP(B178,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -23888,11 +23872,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H179" s="4" t="str">
+      <c r="H179" s="20" t="str">
         <f>LOOKUP(A179,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I179" s="4" t="str">
+      <c r="I179" s="20" t="str">
         <f>LOOKUP(B179,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -24013,11 +23997,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H180" s="4" t="str">
+      <c r="H180" s="20" t="str">
         <f>LOOKUP(A180,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I180" s="4" t="str">
+      <c r="I180" s="20" t="str">
         <f>LOOKUP(B180,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -24138,11 +24122,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H181" s="4" t="str">
+      <c r="H181" s="20" t="str">
         <f>LOOKUP(A181,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I181" s="4" t="str">
+      <c r="I181" s="20" t="str">
         <f>LOOKUP(B181,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -24263,11 +24247,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H182" t="str">
+      <c r="H182" s="5" t="str">
         <f>LOOKUP(A182,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I182" t="str">
+      <c r="I182" s="5" t="str">
         <f>LOOKUP(B182,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -24388,11 +24372,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H183" t="str">
+      <c r="H183" s="5" t="str">
         <f>LOOKUP(A183,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I183" t="str">
+      <c r="I183" s="5" t="str">
         <f>LOOKUP(B183,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -24513,11 +24497,11 @@
         <f t="shared" si="35"/>
         <v>8.8333333333333339</v>
       </c>
-      <c r="H184" t="str">
+      <c r="H184" s="5" t="str">
         <f>LOOKUP(A184,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'41.6"N</v>
       </c>
-      <c r="I184" t="str">
+      <c r="I184" s="5" t="str">
         <f>LOOKUP(B184,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'26.2"W</v>
       </c>
@@ -24638,11 +24622,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H185" s="4" t="str">
+      <c r="H185" s="20" t="str">
         <f>LOOKUP(A185,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I185" s="4" t="str">
+      <c r="I185" s="20" t="str">
         <f>LOOKUP(B185,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -24763,11 +24747,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H186" s="4" t="str">
+      <c r="H186" s="20" t="str">
         <f>LOOKUP(A186,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I186" s="4" t="str">
+      <c r="I186" s="20" t="str">
         <f>LOOKUP(B186,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -24888,11 +24872,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H187" s="4" t="str">
+      <c r="H187" s="20" t="str">
         <f>LOOKUP(A187,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I187" s="4" t="str">
+      <c r="I187" s="20" t="str">
         <f>LOOKUP(B187,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -25013,11 +24997,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H188" t="str">
+      <c r="H188" s="5" t="str">
         <f>LOOKUP(A188,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I188" t="str">
+      <c r="I188" s="5" t="str">
         <f>LOOKUP(B188,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -25138,11 +25122,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H189" t="str">
+      <c r="H189" s="5" t="str">
         <f>LOOKUP(A189,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I189" t="str">
+      <c r="I189" s="5" t="str">
         <f>LOOKUP(B189,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -25263,11 +25247,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H190" t="str">
+      <c r="H190" s="5" t="str">
         <f>LOOKUP(A190,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I190" t="str">
+      <c r="I190" s="5" t="str">
         <f>LOOKUP(B190,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -25388,11 +25372,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H191" s="4" t="str">
+      <c r="H191" s="20" t="str">
         <f>LOOKUP(A191,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I191" s="4" t="str">
+      <c r="I191" s="20" t="str">
         <f>LOOKUP(B191,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -25513,11 +25497,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H192" s="4" t="str">
+      <c r="H192" s="20" t="str">
         <f>LOOKUP(A192,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I192" s="4" t="str">
+      <c r="I192" s="20" t="str">
         <f>LOOKUP(B192,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -25638,11 +25622,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H193" s="4" t="str">
+      <c r="H193" s="20" t="str">
         <f>LOOKUP(A193,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I193" s="4" t="str">
+      <c r="I193" s="20" t="str">
         <f>LOOKUP(B193,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -25763,11 +25747,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H194" t="str">
+      <c r="H194" s="5" t="str">
         <f>LOOKUP(A194,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I194" t="str">
+      <c r="I194" s="5" t="str">
         <f>LOOKUP(B194,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -25788,14 +25772,14 @@
         <v>220.28799999999998</v>
       </c>
       <c r="N194">
-        <f t="shared" ref="N194:N257" si="41">IF(O194="Commercial",1,0)</f>
+        <f t="shared" ref="N194:N253" si="41">IF(O194="Commercial",1,0)</f>
         <v>0</v>
       </c>
       <c r="O194" t="s">
         <v>14</v>
       </c>
       <c r="P194">
-        <f t="shared" ref="P194:P257" si="42">IF(Q194="YES", 1, 0)</f>
+        <f t="shared" ref="P194:P253" si="42">IF(Q194="YES", 1, 0)</f>
         <v>1</v>
       </c>
       <c r="Q194" t="s">
@@ -25888,11 +25872,11 @@
         <f t="shared" si="35"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H195" t="str">
+      <c r="H195" s="5" t="str">
         <f>LOOKUP(A195,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I195" t="str">
+      <c r="I195" s="5" t="str">
         <f>LOOKUP(B195,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -26013,11 +25997,11 @@
         <f t="shared" ref="G196:G199" si="48">F196*24</f>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H196" t="str">
+      <c r="H196" s="5" t="str">
         <f>LOOKUP(A196,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I196" t="str">
+      <c r="I196" s="5" t="str">
         <f>LOOKUP(B196,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -26138,11 +26122,11 @@
         <f t="shared" si="48"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H197" s="4" t="str">
+      <c r="H197" s="20" t="str">
         <f>LOOKUP(A197,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I197" s="4" t="str">
+      <c r="I197" s="20" t="str">
         <f>LOOKUP(B197,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -26263,11 +26247,11 @@
         <f t="shared" si="48"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H198" s="4" t="str">
+      <c r="H198" s="20" t="str">
         <f>LOOKUP(A198,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I198" s="4" t="str">
+      <c r="I198" s="20" t="str">
         <f>LOOKUP(B198,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -26387,11 +26371,11 @@
         <f t="shared" si="48"/>
         <v>8.0666666666666664</v>
       </c>
-      <c r="H199" s="4" t="str">
+      <c r="H199" s="20" t="str">
         <f>LOOKUP(A199,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I199" s="4" t="str">
+      <c r="I199" s="20" t="str">
         <f>LOOKUP(B199,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -26512,11 +26496,11 @@
         <f t="shared" ref="G200:G253" si="52">F200*24</f>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H200" t="str">
+      <c r="H200" s="5" t="str">
         <f>LOOKUP(A200,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I200" t="str">
+      <c r="I200" s="5" t="str">
         <f>LOOKUP(B200,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -26637,11 +26621,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H201" t="str">
+      <c r="H201" s="5" t="str">
         <f>LOOKUP(A201,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I201" t="str">
+      <c r="I201" s="5" t="str">
         <f>LOOKUP(B201,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -26762,11 +26746,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H202" t="str">
+      <c r="H202" s="5" t="str">
         <f>LOOKUP(A202,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I202" t="str">
+      <c r="I202" s="5" t="str">
         <f>LOOKUP(B202,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -26887,11 +26871,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H203" s="4" t="str">
+      <c r="H203" s="20" t="str">
         <f>LOOKUP(A203,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I203" s="4" t="str">
+      <c r="I203" s="20" t="str">
         <f>LOOKUP(B203,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -27012,11 +26996,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H204" s="4" t="str">
+      <c r="H204" s="20" t="str">
         <f>LOOKUP(A204,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I204" s="4" t="str">
+      <c r="I204" s="20" t="str">
         <f>LOOKUP(B204,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -27137,11 +27121,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H205" s="4" t="str">
+      <c r="H205" s="20" t="str">
         <f>LOOKUP(A205,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I205" s="4" t="str">
+      <c r="I205" s="20" t="str">
         <f>LOOKUP(B205,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -27262,11 +27246,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H206" t="str">
+      <c r="H206" s="5" t="str">
         <f>LOOKUP(A206,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I206" t="str">
+      <c r="I206" s="5" t="str">
         <f>LOOKUP(B206,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -27387,11 +27371,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H207" t="str">
+      <c r="H207" s="5" t="str">
         <f>LOOKUP(A207,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I207" t="str">
+      <c r="I207" s="5" t="str">
         <f>LOOKUP(B207,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -27512,11 +27496,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H208" t="str">
+      <c r="H208" s="5" t="str">
         <f>LOOKUP(A208,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I208" t="str">
+      <c r="I208" s="5" t="str">
         <f>LOOKUP(B208,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -27637,11 +27621,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H209" s="4" t="str">
+      <c r="H209" s="20" t="str">
         <f>LOOKUP(A209,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I209" s="4" t="str">
+      <c r="I209" s="20" t="str">
         <f>LOOKUP(B209,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -27762,11 +27746,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H210" s="4" t="str">
+      <c r="H210" s="20" t="str">
         <f>LOOKUP(A210,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I210" s="4" t="str">
+      <c r="I210" s="20" t="str">
         <f>LOOKUP(B210,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -27887,11 +27871,11 @@
         <f t="shared" si="52"/>
         <v>9.2166666666666668</v>
       </c>
-      <c r="H211" s="4" t="str">
+      <c r="H211" s="20" t="str">
         <f>LOOKUP(A211,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I211" s="4" t="str">
+      <c r="I211" s="20" t="str">
         <f>LOOKUP(B211,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -28012,11 +27996,11 @@
         <f t="shared" si="52"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="H212" t="str">
+      <c r="H212" s="5" t="str">
         <f>LOOKUP(A212,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I212" t="str">
+      <c r="I212" s="5" t="str">
         <f>LOOKUP(B212,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -28137,11 +28121,11 @@
         <f t="shared" si="52"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="H213" t="str">
+      <c r="H213" s="5" t="str">
         <f>LOOKUP(A213,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I213" t="str">
+      <c r="I213" s="5" t="str">
         <f>LOOKUP(B213,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -28262,11 +28246,11 @@
         <f t="shared" si="52"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="H214" t="str">
+      <c r="H214" s="5" t="str">
         <f>LOOKUP(A214,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I214" t="str">
+      <c r="I214" s="5" t="str">
         <f>LOOKUP(B214,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -28387,11 +28371,11 @@
         <f t="shared" si="52"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="H215" s="4" t="str">
+      <c r="H215" s="20" t="str">
         <f>LOOKUP(A215,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I215" s="4" t="str">
+      <c r="I215" s="20" t="str">
         <f>LOOKUP(B215,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -28512,11 +28496,11 @@
         <f t="shared" si="52"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="H216" s="4" t="str">
+      <c r="H216" s="20" t="str">
         <f>LOOKUP(A216,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I216" s="4" t="str">
+      <c r="I216" s="20" t="str">
         <f>LOOKUP(B216,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -28637,11 +28621,11 @@
         <f t="shared" si="52"/>
         <v>8.0833333333333339</v>
       </c>
-      <c r="H217" s="4" t="str">
+      <c r="H217" s="20" t="str">
         <f>LOOKUP(A217,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'50.9"N</v>
       </c>
-      <c r="I217" s="4" t="str">
+      <c r="I217" s="20" t="str">
         <f>LOOKUP(B217,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -28762,11 +28746,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H218" t="str">
+      <c r="H218" s="5" t="str">
         <f>LOOKUP(A218,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I218" t="str">
+      <c r="I218" s="5" t="str">
         <f>LOOKUP(B218,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -28887,11 +28871,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H219" t="str">
+      <c r="H219" s="5" t="str">
         <f>LOOKUP(A219,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I219" t="str">
+      <c r="I219" s="5" t="str">
         <f>LOOKUP(B219,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -29012,11 +28996,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H220" t="str">
+      <c r="H220" s="5" t="str">
         <f>LOOKUP(A220,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I220" t="str">
+      <c r="I220" s="5" t="str">
         <f>LOOKUP(B220,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -29137,11 +29121,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H221" s="4" t="str">
+      <c r="H221" s="20" t="str">
         <f>LOOKUP(A221,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I221" s="4" t="str">
+      <c r="I221" s="20" t="str">
         <f>LOOKUP(B221,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -29262,11 +29246,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H222" s="4" t="str">
+      <c r="H222" s="20" t="str">
         <f>LOOKUP(A222,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I222" s="4" t="str">
+      <c r="I222" s="20" t="str">
         <f>LOOKUP(B222,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -29387,11 +29371,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H223" s="4" t="str">
+      <c r="H223" s="20" t="str">
         <f>LOOKUP(A223,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I223" s="4" t="str">
+      <c r="I223" s="20" t="str">
         <f>LOOKUP(B223,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -29512,11 +29496,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H224" t="str">
+      <c r="H224" s="5" t="str">
         <f>LOOKUP(A224,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I224" t="str">
+      <c r="I224" s="5" t="str">
         <f>LOOKUP(B224,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -29637,11 +29621,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H225" t="str">
+      <c r="H225" s="5" t="str">
         <f>LOOKUP(A225,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I225" t="str">
+      <c r="I225" s="5" t="str">
         <f>LOOKUP(B225,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -29762,11 +29746,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H226" t="str">
+      <c r="H226" s="5" t="str">
         <f>LOOKUP(A226,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I226" t="str">
+      <c r="I226" s="5" t="str">
         <f>LOOKUP(B226,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -29887,11 +29871,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H227" s="4" t="str">
+      <c r="H227" s="20" t="str">
         <f>LOOKUP(A227,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I227" s="4" t="str">
+      <c r="I227" s="20" t="str">
         <f>LOOKUP(B227,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -30012,11 +29996,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H228" s="4" t="str">
+      <c r="H228" s="20" t="str">
         <f>LOOKUP(A228,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I228" s="4" t="str">
+      <c r="I228" s="20" t="str">
         <f>LOOKUP(B228,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -30137,11 +30121,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H229" s="4" t="str">
+      <c r="H229" s="20" t="str">
         <f>LOOKUP(A229,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I229" s="4" t="str">
+      <c r="I229" s="20" t="str">
         <f>LOOKUP(B229,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -30262,11 +30246,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H230" t="str">
+      <c r="H230" s="5" t="str">
         <f>LOOKUP(A230,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I230" t="str">
+      <c r="I230" s="5" t="str">
         <f>LOOKUP(B230,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -30387,11 +30371,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H231" t="str">
+      <c r="H231" s="5" t="str">
         <f>LOOKUP(A231,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I231" t="str">
+      <c r="I231" s="5" t="str">
         <f>LOOKUP(B231,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -30512,11 +30496,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H232" t="str">
+      <c r="H232" s="5" t="str">
         <f>LOOKUP(A232,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I232" t="str">
+      <c r="I232" s="5" t="str">
         <f>LOOKUP(B232,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -30637,11 +30621,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H233" s="4" t="str">
+      <c r="H233" s="20" t="str">
         <f>LOOKUP(A233,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I233" s="4" t="str">
+      <c r="I233" s="20" t="str">
         <f>LOOKUP(B233,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -30762,11 +30746,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H234" s="4" t="str">
+      <c r="H234" s="20" t="str">
         <f>LOOKUP(A234,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I234" s="4" t="str">
+      <c r="I234" s="20" t="str">
         <f>LOOKUP(B234,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -30887,11 +30871,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H235" s="4" t="str">
+      <c r="H235" s="20" t="str">
         <f>LOOKUP(A235,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I235" s="4" t="str">
+      <c r="I235" s="20" t="str">
         <f>LOOKUP(B235,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -31012,11 +30996,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H236" t="str">
+      <c r="H236" s="5" t="str">
         <f>LOOKUP(A236,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I236" t="str">
+      <c r="I236" s="5" t="str">
         <f>LOOKUP(B236,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -31137,11 +31121,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H237" t="str">
+      <c r="H237" s="5" t="str">
         <f>LOOKUP(A237,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I237" t="str">
+      <c r="I237" s="5" t="str">
         <f>LOOKUP(B237,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -31262,11 +31246,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H238" t="str">
+      <c r="H238" s="5" t="str">
         <f>LOOKUP(A238,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I238" t="str">
+      <c r="I238" s="5" t="str">
         <f>LOOKUP(B238,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -31387,11 +31371,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H239" s="4" t="str">
+      <c r="H239" s="20" t="str">
         <f>LOOKUP(A239,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I239" s="4" t="str">
+      <c r="I239" s="20" t="str">
         <f>LOOKUP(B239,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -31512,11 +31496,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H240" s="4" t="str">
+      <c r="H240" s="20" t="str">
         <f>LOOKUP(A240,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I240" s="4" t="str">
+      <c r="I240" s="20" t="str">
         <f>LOOKUP(B240,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -31637,11 +31621,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H241" s="4" t="str">
+      <c r="H241" s="20" t="str">
         <f>LOOKUP(A241,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I241" s="4" t="str">
+      <c r="I241" s="20" t="str">
         <f>LOOKUP(B241,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -31762,11 +31746,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H242" t="str">
+      <c r="H242" s="5" t="str">
         <f>LOOKUP(A242,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I242" t="str">
+      <c r="I242" s="5" t="str">
         <f>LOOKUP(B242,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -31887,11 +31871,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H243" t="str">
+      <c r="H243" s="5" t="str">
         <f>LOOKUP(A243,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I243" t="str">
+      <c r="I243" s="5" t="str">
         <f>LOOKUP(B243,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -32012,11 +31996,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H244" t="str">
+      <c r="H244" s="5" t="str">
         <f>LOOKUP(A244,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I244" t="str">
+      <c r="I244" s="5" t="str">
         <f>LOOKUP(B244,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -32137,11 +32121,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H245" s="4" t="str">
+      <c r="H245" s="20" t="str">
         <f>LOOKUP(A245,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I245" s="4" t="str">
+      <c r="I245" s="20" t="str">
         <f>LOOKUP(B245,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -32262,11 +32246,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H246" s="4" t="str">
+      <c r="H246" s="20" t="str">
         <f>LOOKUP(A246,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I246" s="4" t="str">
+      <c r="I246" s="20" t="str">
         <f>LOOKUP(B246,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -32387,11 +32371,11 @@
         <f t="shared" si="52"/>
         <v>8.3166666666666664</v>
       </c>
-      <c r="H247" s="4" t="str">
+      <c r="H247" s="20" t="str">
         <f>LOOKUP(A247,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I247" s="4" t="str">
+      <c r="I247" s="20" t="str">
         <f>LOOKUP(B247,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°14'38.5"W</v>
       </c>
@@ -32512,11 +32496,11 @@
         <f t="shared" si="52"/>
         <v>7.6333333333333329</v>
       </c>
-      <c r="H248" t="str">
+      <c r="H248" s="5" t="str">
         <f>LOOKUP(A248,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I248" t="str">
+      <c r="I248" s="5" t="str">
         <f>LOOKUP(B248,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'55.9"W</v>
       </c>
@@ -32636,11 +32620,11 @@
         <f t="shared" si="52"/>
         <v>7.6333333333333329</v>
       </c>
-      <c r="H249" t="str">
+      <c r="H249" s="5" t="str">
         <f>LOOKUP(A249,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I249" t="str">
+      <c r="I249" s="5" t="str">
         <f>LOOKUP(B249,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'55.9"W</v>
       </c>
@@ -32760,11 +32744,11 @@
         <f t="shared" si="52"/>
         <v>7.6333333333333329</v>
       </c>
-      <c r="H250" t="str">
+      <c r="H250" s="5" t="str">
         <f>LOOKUP(A250,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I250" t="str">
+      <c r="I250" s="5" t="str">
         <f>LOOKUP(B250,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'55.9"W</v>
       </c>
@@ -32884,11 +32868,11 @@
         <f t="shared" si="52"/>
         <v>7.6333333333333329</v>
       </c>
-      <c r="H251" s="4" t="str">
+      <c r="H251" s="20" t="str">
         <f>LOOKUP(A251,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I251" s="4" t="str">
+      <c r="I251" s="20" t="str">
         <f>LOOKUP(B251,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'55.9"W</v>
       </c>
@@ -33008,11 +32992,11 @@
         <f t="shared" si="52"/>
         <v>7.6333333333333329</v>
       </c>
-      <c r="H252" s="4" t="str">
+      <c r="H252" s="20" t="str">
         <f>LOOKUP(A252,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I252" s="4" t="str">
+      <c r="I252" s="20" t="str">
         <f>LOOKUP(B252,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'55.9"W</v>
       </c>
@@ -33132,11 +33116,11 @@
         <f t="shared" si="52"/>
         <v>7.6333333333333329</v>
       </c>
-      <c r="H253" s="4" t="str">
+      <c r="H253" s="20" t="str">
         <f>LOOKUP(A253,INDEX!$A$2:$A$28,INDEX!$F$2:$F$28)</f>
         <v>43°10'39.6"N</v>
       </c>
-      <c r="I253" s="4" t="str">
+      <c r="I253" s="20" t="str">
         <f>LOOKUP(B253,INDEX!$A$2:$A$28,INDEX!$G$2:$G$28)</f>
         <v>79°15'55.9"W</v>
       </c>
@@ -33655,11 +33639,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6CC417-5CA3-4E85-A811-2FB065E3363F}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33801,7 +33785,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M44" si="0">SUM(D3:L3)</f>
+        <f t="shared" ref="M3:M51" si="0">SUM(D3:L3)</f>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -35566,6 +35550,312 @@
       <c r="M44">
         <f t="shared" si="0"/>
         <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="str">
+        <f>LOOKUP(A45,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D45">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E45">
+        <v>0.121</v>
+      </c>
+      <c r="F45">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.159</v>
+      </c>
+      <c r="H45">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I45">
+        <v>0.224</v>
+      </c>
+      <c r="J45">
+        <v>0.121</v>
+      </c>
+      <c r="K45">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="L45">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>0.99899999999999989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" t="str">
+        <f>LOOKUP(A46,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D46">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="E46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="J46">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K46">
+        <v>0.03</v>
+      </c>
+      <c r="L46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="str">
+        <f>LOOKUP(A47,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E47">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.318</v>
+      </c>
+      <c r="J47">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K47">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L47">
+        <v>0.02</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="str">
+        <f>LOOKUP(A48,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D48">
+        <v>0.188</v>
+      </c>
+      <c r="E48">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F48">
+        <v>3.1E-2</v>
+      </c>
+      <c r="G48">
+        <v>0.188</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0.125</v>
+      </c>
+      <c r="J48">
+        <v>0.219</v>
+      </c>
+      <c r="K48">
+        <v>0.125</v>
+      </c>
+      <c r="L48">
+        <v>9.4E-2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="str">
+        <f>LOOKUP(A49,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D49">
+        <v>0.311</v>
+      </c>
+      <c r="E49">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>1.0010000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="str">
+        <f>LOOKUP(A50,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D50">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E50">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0.247</v>
+      </c>
+      <c r="H50">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I50">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="J50">
+        <v>0.108</v>
+      </c>
+      <c r="K50">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L50">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>1.0010000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="str">
+        <f>LOOKUP(A51,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D51">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E51">
+        <v>0.156</v>
+      </c>
+      <c r="F51">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G51">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H51">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I51">
+        <v>0.25</v>
+      </c>
+      <c r="J51">
+        <v>0.106</v>
+      </c>
+      <c r="K51">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="L51">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/Data & Scripts/Full_Crow_Data.xlsx
+++ b/Data & Scripts/Full_Crow_Data.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Alex-Popescu-Thesis-2023\Data &amp; Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60DF609-865E-4BD8-B53E-FDC1358411DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473AACD2-EE33-488A-97D2-E3A0673C7A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14400" yWindow="3270" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{359FEB76-43F5-4253-AE07-674275EDB72D}"/>
+    <workbookView xWindow="-28920" yWindow="3150" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{359FEB76-43F5-4253-AE07-674275EDB72D}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA SHEET" sheetId="1" r:id="rId1"/>
     <sheet name="PATHWAY ANALYSIS" sheetId="4" r:id="rId2"/>
-    <sheet name="META DATA" sheetId="2" r:id="rId3"/>
-    <sheet name="INDEX" sheetId="3" r:id="rId4"/>
+    <sheet name="PATHWAY ANALYSIS - SUMMARY" sheetId="5" r:id="rId3"/>
+    <sheet name="META DATA" sheetId="2" r:id="rId4"/>
+    <sheet name="INDEX" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DATA SHEET'!$A$1:$AJ$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'PATHWAY ANALYSIS'!$A$1:$O$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -118,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="373">
   <si>
     <t>RECORDED_DURATION</t>
   </si>
@@ -1169,6 +1171,75 @@
   <si>
     <t>CHECK</t>
   </si>
+  <si>
+    <t>TOTAL_NB_BEHAVIORS</t>
+  </si>
+  <si>
+    <t>TOTAL_NB_TRANSITIONS</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Sentinel Absent</t>
+  </si>
+  <si>
+    <t>Not Baited</t>
+  </si>
+  <si>
+    <t>Sentinel Present + Baited</t>
+  </si>
+  <si>
+    <t>Sentinel Present + Not Baited</t>
+  </si>
+  <si>
+    <t>Sentinel Absent + Baited</t>
+  </si>
+  <si>
+    <t>Sentinel Absent + Not Baited</t>
+  </si>
+  <si>
+    <t>FREQ_HD</t>
+  </si>
+  <si>
+    <t>FREQ_HD+P</t>
+  </si>
+  <si>
+    <t>FREQ_HU</t>
+  </si>
+  <si>
+    <t>FREQ_M</t>
+  </si>
+  <si>
+    <t>HD|HD+P</t>
+  </si>
+  <si>
+    <t>HD|HU</t>
+  </si>
+  <si>
+    <t>HD|M</t>
+  </si>
+  <si>
+    <t>HD+P|HU</t>
+  </si>
+  <si>
+    <t>HD+P|M</t>
+  </si>
+  <si>
+    <t>HU|HD</t>
+  </si>
+  <si>
+    <t>HU|M</t>
+  </si>
+  <si>
+    <t>M|HD</t>
+  </si>
+  <si>
+    <t>M|HU</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
 </sst>
 </file>
 
@@ -1627,8 +1698,8 @@
   <dimension ref="A1:AJ391"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J249" sqref="J249"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33639,11 +33710,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6CC417-5CA3-4E85-A811-2FB065E3363F}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33651,18 +33722,20 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>338</v>
       </c>
@@ -33673,37 +33746,43 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>46</v>
       </c>
@@ -33711,23 +33790,23 @@
         <v>15</v>
       </c>
       <c r="C2" t="str">
-        <f>LOOKUP(A2,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <f>LOOKUP(A2,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>NO</v>
       </c>
       <c r="D2">
+        <v>46</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2">
         <v>0.28899999999999998</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0.222</v>
-      </c>
       <c r="H2">
-        <v>6.7000000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0.222</v>
@@ -33736,17 +33815,23 @@
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="K2">
+        <v>0.222</v>
+      </c>
+      <c r="L2">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="L2">
+      <c r="M2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="N2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="M2">
-        <f>SUM(D2:L2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <f>SUM(F2:N2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
@@ -33754,2121 +33839,4458 @@
         <v>15</v>
       </c>
       <c r="C3" t="str">
-        <f>LOOKUP(A3,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <f>LOOKUP(A3,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>NO</v>
       </c>
       <c r="D3">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>35</v>
+      </c>
+      <c r="F3">
         <v>0.22900000000000001</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0.2</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.25700000000000001</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.114</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>0.14299999999999999</v>
       </c>
-      <c r="M3">
-        <f t="shared" ref="M3:M51" si="0">SUM(D3:L3)</f>
+      <c r="O3">
+        <f>SUM(F3:N3)</f>
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="str">
-        <f>LOOKUP(A4,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
+        <f>LOOKUP(A4,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
       </c>
       <c r="D4">
-        <v>0.23200000000000001</v>
+        <v>35</v>
       </c>
       <c r="E4">
-        <v>1.7999999999999999E-2</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>1.7999999999999999E-2</v>
+        <v>0.152</v>
       </c>
       <c r="G4">
-        <v>0.214</v>
+        <v>0.03</v>
       </c>
       <c r="H4">
-        <v>1.7999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.26800000000000002</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="J4">
-        <v>0.107</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="K4">
-        <v>1.7999999999999999E-2</v>
+        <v>0.182</v>
       </c>
       <c r="L4">
-        <v>0.107</v>
+        <v>0.21199999999999999</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+      <c r="N4">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="O4">
+        <f>SUM(F4:N4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="str">
+        <f>LOOKUP(A5,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
+      </c>
+      <c r="D5">
         <v>15</v>
       </c>
-      <c r="C5" t="str">
-        <f>LOOKUP(A5,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D5">
-        <v>0.25</v>
-      </c>
       <c r="E5">
-        <v>6.7000000000000004E-2</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="G5">
-        <v>0.25</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.26700000000000002</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.05</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L5">
-        <v>1.7000000000000001E-2</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="O5">
+        <f>SUM(F5:N5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C6" t="str">
-        <f>LOOKUP(A6,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
+        <f>LOOKUP(A6,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
       </c>
       <c r="D6">
-        <v>0.27900000000000003</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>1.6E-2</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="G6">
-        <v>0.27900000000000003</v>
+        <v>0.13</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.186</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="J6">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.109</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="L6">
-        <v>1.0999999999999999E-2</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="O6">
+        <f>SUM(F6:N6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="str">
-        <f>LOOKUP(A7,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>NO</v>
+        <f>LOOKUP(A7,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
       </c>
       <c r="D7">
-        <v>0.21099999999999999</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>5.8999999999999997E-2</v>
+        <v>54</v>
       </c>
       <c r="F7">
-        <v>0.01</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="G7">
-        <v>0.17599999999999999</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="H7">
-        <v>1.4999999999999999E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I7">
-        <v>0.19600000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="J7">
-        <v>0.152</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="K7">
-        <v>7.3999999999999996E-2</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="L7">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
-        <v>1.0010000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.107</v>
+      </c>
+      <c r="O7">
+        <f>SUM(F7:N7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C8" t="str">
-        <f>LOOKUP(A8,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>NO</v>
+        <f>LOOKUP(A8,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
       </c>
       <c r="D8">
-        <v>0.18099999999999999</v>
+        <v>118</v>
       </c>
       <c r="E8">
-        <v>5.8000000000000003E-2</v>
+        <v>116</v>
       </c>
       <c r="F8">
-        <v>1.2999999999999999E-2</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="G8">
-        <v>0.155</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="H8">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.123</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="J8">
-        <v>0.21299999999999999</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.123</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="L8">
-        <v>0.11600000000000001</v>
+        <v>7.8E-2</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
-        <v>1.0010000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O8">
+        <f>SUM(F8:N8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="str">
-        <f>LOOKUP(A9,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>NO</v>
+        <f>LOOKUP(A9,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
       </c>
       <c r="D9">
-        <v>0.156</v>
+        <v>62</v>
       </c>
       <c r="E9">
-        <v>9.0999999999999998E-2</v>
+        <v>60</v>
       </c>
       <c r="F9">
-        <v>1.2999999999999999E-2</v>
+        <v>0.25</v>
       </c>
       <c r="G9">
-        <v>0.14299999999999999</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.221</v>
+        <v>0.25</v>
       </c>
       <c r="J9">
-        <v>0.182</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>5.1999999999999998E-2</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="L9">
-        <v>0.14299999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
-        <v>1.0010000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+      <c r="N9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O9">
+        <f>SUM(F9:N9)</f>
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" t="str">
-        <f>LOOKUP(A10,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>NO</v>
+        <f>LOOKUP(A10,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
       </c>
       <c r="D10">
-        <v>0.104</v>
+        <v>32</v>
       </c>
       <c r="E10">
-        <v>0.06</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="G10">
-        <v>0.104</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.104</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="J10">
-        <v>0.313</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.06</v>
+        <v>0.129</v>
       </c>
       <c r="L10">
-        <v>0.254</v>
+        <v>0.22600000000000001</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
-        <v>0.99899999999999989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.129</v>
+      </c>
+      <c r="N10">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O10">
+        <f>SUM(F10:N10)</f>
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="str">
-        <f>LOOKUP(A11,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <f>LOOKUP(A11,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>YES</v>
       </c>
       <c r="D11">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>124</v>
+      </c>
+      <c r="F11">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="G11">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="J11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K11">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="L11">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M11">
+        <v>0.04</v>
+      </c>
+      <c r="N11">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O11">
+        <f>SUM(F11:N11)</f>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="str">
+        <f>LOOKUP(A12,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D12">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>52</v>
+      </c>
+      <c r="F12">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.25</v>
+      </c>
+      <c r="J12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K12">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="L12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="O12">
+        <f>SUM(F12:N12)</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="str">
+        <f>LOOKUP(A13,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>88</v>
+      </c>
+      <c r="F13">
         <v>0.216</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.182</v>
+      </c>
+      <c r="J13">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K13">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="M13">
+        <v>0.08</v>
+      </c>
+      <c r="N13">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O13">
+        <f>SUM(F13:N13)</f>
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="str">
+        <f>LOOKUP(A14,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D14">
+        <v>108</v>
+      </c>
+      <c r="E14">
+        <v>107</v>
+      </c>
+      <c r="F14">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.121</v>
+      </c>
+      <c r="H14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I14">
+        <v>0.159</v>
+      </c>
+      <c r="J14">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K14">
+        <v>0.224</v>
+      </c>
+      <c r="L14">
+        <v>0.121</v>
+      </c>
+      <c r="M14">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="N14">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O14">
+        <f>SUM(F14:N14)</f>
+        <v>0.99899999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="str">
+        <f>LOOKUP(A15,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D15">
+        <v>184</v>
+      </c>
+      <c r="E15">
+        <v>183</v>
+      </c>
+      <c r="F15">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="G15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0.186</v>
+      </c>
+      <c r="L15">
+        <v>0.12</v>
+      </c>
+      <c r="M15">
+        <v>0.109</v>
+      </c>
+      <c r="N15">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O15">
+        <f>SUM(F15:N15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="str">
+        <f>LOOKUP(A16,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
+      </c>
+      <c r="D16">
+        <v>214</v>
+      </c>
+      <c r="E16">
+        <v>204</v>
+      </c>
+      <c r="F16">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="G16">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.01</v>
+      </c>
+      <c r="I16">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="J16">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K16">
         <v>0.19600000000000001</v>
       </c>
-      <c r="H11">
-        <v>0.02</v>
-      </c>
-      <c r="I11">
-        <v>0.157</v>
-      </c>
-      <c r="J11">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="K11">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="L11">
-        <v>0.157</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+      <c r="L16">
+        <v>0.152</v>
+      </c>
+      <c r="M16">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N16">
+        <v>0.108</v>
+      </c>
+      <c r="O16">
+        <f>SUM(F16:N16)</f>
         <v>1.0010000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="str">
-        <f>LOOKUP(A12,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>NO</v>
-      </c>
-      <c r="D12">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="E12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0.2</v>
-      </c>
-      <c r="H12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I12">
-        <v>0.3</v>
-      </c>
-      <c r="J12">
-        <v>0.05</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="str">
-        <f>LOOKUP(A13,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>NO</v>
-      </c>
-      <c r="D13">
-        <v>0.222</v>
-      </c>
-      <c r="E13">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0.185</v>
-      </c>
-      <c r="H13">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="I13">
-        <v>0.111</v>
-      </c>
-      <c r="J13">
-        <v>0.222</v>
-      </c>
-      <c r="K13">
-        <v>0.111</v>
-      </c>
-      <c r="L13">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
-        <v>0.99899999999999989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" t="str">
-        <f>LOOKUP(A14,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>NO</v>
-      </c>
-      <c r="D14">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="F14">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="G14">
-        <v>0.114</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.182</v>
-      </c>
-      <c r="J14">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="K14">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="L14">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>0.99900000000000011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="str">
-        <f>LOOKUP(A15,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>NO</v>
-      </c>
-      <c r="D15">
-        <v>0.189</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="G15">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="H15">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="I15">
-        <v>0.108</v>
-      </c>
-      <c r="J15">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="K15">
-        <v>0.189</v>
-      </c>
-      <c r="L15">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>0.99900000000000011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" t="str">
-        <f>LOOKUP(A16,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>NO</v>
-      </c>
-      <c r="D16">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="G16">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="J16">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="K16">
-        <v>0.19</v>
-      </c>
-      <c r="L16">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>0.99899999999999989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
       <c r="C17" t="str">
-        <f>LOOKUP(A17,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
+        <f>LOOKUP(A17,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
       </c>
       <c r="D17">
-        <v>0.30599999999999999</v>
+        <v>164</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="G17">
-        <v>0.28999999999999998</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="H17">
-        <v>1.6E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="I17">
-        <v>0.28999999999999998</v>
+        <v>0.155</v>
       </c>
       <c r="J17">
-        <v>4.8000000000000001E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="K17">
-        <v>1.6E-2</v>
+        <v>0.123</v>
       </c>
       <c r="L17">
-        <v>3.2000000000000001E-2</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
-        <v>0.998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.123</v>
+      </c>
+      <c r="N17">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="O17">
+        <f>SUM(F17:N17)</f>
+        <v>1.0010000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="str">
-        <f>LOOKUP(A18,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <f>LOOKUP(A18,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
+      </c>
+      <c r="D18">
+        <v>82</v>
+      </c>
+      <c r="E18">
+        <v>77</v>
+      </c>
+      <c r="F18">
+        <v>0.156</v>
+      </c>
+      <c r="G18">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0.221</v>
+      </c>
+      <c r="L18">
+        <v>0.182</v>
+      </c>
+      <c r="M18">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N18">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="O18">
+        <f>SUM(F18:N18)</f>
+        <v>1.0010000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="str">
+        <f>LOOKUP(A19,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
+      </c>
+      <c r="D19">
+        <v>69</v>
+      </c>
+      <c r="E19">
+        <v>67</v>
+      </c>
+      <c r="F19">
+        <v>0.104</v>
+      </c>
+      <c r="G19">
+        <v>0.06</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0.104</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.104</v>
+      </c>
+      <c r="L19">
+        <v>0.313</v>
+      </c>
+      <c r="M19">
+        <v>0.06</v>
+      </c>
+      <c r="N19">
+        <v>0.254</v>
+      </c>
+      <c r="O19">
+        <f>SUM(F19:N19)</f>
+        <v>0.99899999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="str">
+        <f>LOOKUP(A20,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>YES</v>
       </c>
-      <c r="D18">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="E18">
+      <c r="D20">
+        <v>248</v>
+      </c>
+      <c r="E20">
+        <v>245</v>
+      </c>
+      <c r="F20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G20">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="H18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I18">
-        <v>0.314</v>
-      </c>
-      <c r="J18">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="K18">
-        <v>1.6E-2</v>
-      </c>
-      <c r="L18">
-        <v>1.6E-2</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="str">
-        <f>LOOKUP(A19,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0.318</v>
+      </c>
+      <c r="L20">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N20">
+        <v>0.02</v>
+      </c>
+      <c r="O20">
+        <f>SUM(F20:N20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="str">
+        <f>LOOKUP(A21,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>YES</v>
       </c>
-      <c r="D19">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="E19">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G19">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="H19">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I19">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="J19">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="K19">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="L19">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>0.99800000000000011</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="str">
-        <f>LOOKUP(A20,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+      <c r="D21">
+        <v>69</v>
+      </c>
+      <c r="E21">
+        <v>66</v>
+      </c>
+      <c r="F21">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="G21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="L21">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M21">
+        <v>0.03</v>
+      </c>
+      <c r="N21">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O21">
+        <f>SUM(F21:N21)</f>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="str">
+        <f>LOOKUP(A22,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>YES</v>
       </c>
-      <c r="D20">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="E20">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F20">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="G20">
-        <v>0.21</v>
-      </c>
-      <c r="H20">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I20">
-        <v>0.21</v>
-      </c>
-      <c r="J20">
-        <v>0.114</v>
-      </c>
-      <c r="K20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L20">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" t="str">
-        <f>LOOKUP(A21,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+      <c r="D22">
+        <v>35</v>
+      </c>
+      <c r="E22">
+        <v>32</v>
+      </c>
+      <c r="F22">
+        <v>0.188</v>
+      </c>
+      <c r="G22">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H22">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I22">
+        <v>0.188</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0.125</v>
+      </c>
+      <c r="L22">
+        <v>0.219</v>
+      </c>
+      <c r="M22">
+        <v>0.125</v>
+      </c>
+      <c r="N22">
+        <v>9.4E-2</v>
+      </c>
+      <c r="O22">
+        <f>SUM(F22:N22)</f>
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="str">
+        <f>LOOKUP(A23,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>YES</v>
       </c>
-      <c r="D21">
-        <v>0.221</v>
-      </c>
-      <c r="E21">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="H21">
-        <v>1.6E-2</v>
-      </c>
-      <c r="I21">
-        <v>0.221</v>
-      </c>
-      <c r="J21">
-        <v>0.13100000000000001</v>
-      </c>
-      <c r="K21">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="L21">
-        <v>0.107</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" t="str">
-        <f>LOOKUP(A22,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D22">
-        <v>0.22</v>
-      </c>
-      <c r="E22">
-        <v>0.04</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="H22">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="I22">
-        <v>0.22</v>
-      </c>
-      <c r="J22">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="K22">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="L22">
-        <v>0.13</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
-        <v>0.99900000000000011</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" t="str">
-        <f>LOOKUP(A23,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
       <c r="D23">
-        <v>0.23799999999999999</v>
+        <v>52</v>
       </c>
       <c r="E23">
-        <v>4.8000000000000001E-2</v>
+        <v>51</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="G23">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>4.8000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.14299999999999999</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="J23">
-        <v>0.14299999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="K23">
-        <v>0.14299999999999999</v>
+        <v>0.157</v>
       </c>
       <c r="L23">
-        <v>4.8000000000000001E-2</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="M23">
-        <f t="shared" si="0"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="N23">
+        <v>0.157</v>
+      </c>
+      <c r="O23">
+        <f>SUM(F23:N23)</f>
         <v>1.0010000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="str">
-        <f>LOOKUP(A24,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
+        <f>LOOKUP(A24,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
       </c>
       <c r="D24">
-        <v>0.13300000000000001</v>
+        <v>43</v>
       </c>
       <c r="E24">
-        <v>6.7000000000000004E-2</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G24">
-        <v>0.13300000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.13300000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J24">
-        <v>0.26700000000000002</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="K24">
-        <v>6.7000000000000004E-2</v>
+        <v>0.3</v>
       </c>
       <c r="L24">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O24">
+        <f>SUM(F24:N24)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="str">
-        <f>LOOKUP(A25,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
+        <f>LOOKUP(A25,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
       </c>
       <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="F25">
         <v>0.222</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
       <c r="G25">
-        <v>5.6000000000000001E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="H25">
-        <v>0.16700000000000001</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0.111</v>
+        <v>0.185</v>
       </c>
       <c r="J25">
-        <v>0.16700000000000001</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="K25">
         <v>0.111</v>
       </c>
       <c r="L25">
-        <v>0.16700000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
+        <v>0.111</v>
+      </c>
+      <c r="N25">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="O25">
+        <f>SUM(F25:N25)</f>
+        <v>0.99899999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="str">
+        <f>LOOKUP(A26,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D26">
+        <v>76</v>
+      </c>
+      <c r="E26">
+        <v>74</v>
+      </c>
+      <c r="F26">
+        <v>0.311</v>
+      </c>
+      <c r="G26">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>1.4E-2</v>
+      </c>
+      <c r="O26">
+        <f>SUM(F26:N26)</f>
         <v>1.0010000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="str">
+        <f>LOOKUP(A27,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D27">
+        <v>165</v>
+      </c>
+      <c r="E27">
+        <v>160</v>
+      </c>
+      <c r="F27">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G27">
+        <v>0.156</v>
+      </c>
+      <c r="H27">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I27">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="J27">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K27">
+        <v>0.25</v>
+      </c>
+      <c r="L27">
+        <v>0.106</v>
+      </c>
+      <c r="M27">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="N27">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="O27">
+        <f>SUM(F27:N27)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="str">
+        <f>LOOKUP(A28,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D28">
+        <v>96</v>
+      </c>
+      <c r="E28">
+        <v>93</v>
+      </c>
+      <c r="F28">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="G28">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0.247</v>
+      </c>
+      <c r="J28">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K28">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.108</v>
+      </c>
+      <c r="M28">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N28">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="O28">
+        <f>SUM(F28:N28)</f>
+        <v>1.0010000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" t="str">
+        <f>LOOKUP(A29,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
+      </c>
+      <c r="D29">
+        <v>50</v>
+      </c>
+      <c r="E29">
+        <v>44</v>
+      </c>
+      <c r="F29">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="G29">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H29">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="I29">
+        <v>0.114</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0.182</v>
+      </c>
+      <c r="L29">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="N29">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O29">
+        <f>SUM(F29:N29)</f>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="str">
+        <f>LOOKUP(A30,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>NO</v>
+      </c>
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>37</v>
+      </c>
+      <c r="F30">
+        <v>0.189</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J30">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K30">
+        <v>0.108</v>
+      </c>
+      <c r="L30">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.189</v>
+      </c>
+      <c r="N30">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="O30">
+        <f>SUM(F30:N30)</f>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" t="str">
+        <f>LOOKUP(A31,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D31">
+        <v>84</v>
+      </c>
+      <c r="E31">
+        <v>82</v>
+      </c>
+      <c r="F31">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G31">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H31">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.183</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0.183</v>
+      </c>
+      <c r="L31">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="M31">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="N31">
+        <v>0.11</v>
+      </c>
+      <c r="O31">
+        <f>SUM(F31:N31)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="str">
+        <f>LOOKUP(A32,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0.4</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0.6</v>
+      </c>
+      <c r="O32">
+        <f>SUM(F32:N32)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="str">
+        <f>LOOKUP(A33,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D33">
+        <v>59</v>
+      </c>
+      <c r="E33">
+        <v>55</v>
+      </c>
+      <c r="F33">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="G33">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H33">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I33">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.127</v>
+      </c>
+      <c r="L33">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="M33">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="N33">
+        <v>0.218</v>
+      </c>
+      <c r="O33">
+        <f>SUM(F33:N33)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="str">
+        <f>LOOKUP(A34,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>SUM(F34:N34)</f>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="str">
+        <f>LOOKUP(A35,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D35">
+        <v>162</v>
+      </c>
+      <c r="E35">
         <v>156</v>
       </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" t="str">
-        <f>LOOKUP(A26,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+      <c r="F35">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="G35">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H35">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I35">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="L35">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="M35">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N35">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="O35">
+        <f>SUM(F35:N35)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="str">
+        <f>LOOKUP(A36,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>YES</v>
       </c>
-      <c r="D26">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="E26">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="H26">
-        <v>0.107</v>
-      </c>
-      <c r="I26">
-        <v>0.107</v>
-      </c>
-      <c r="J26">
-        <v>0.214</v>
-      </c>
-      <c r="K26">
-        <v>0.107</v>
-      </c>
-      <c r="L26">
-        <v>0.214</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
-        <v>0.99899999999999989</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" t="str">
-        <f>LOOKUP(A27,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+      <c r="D36">
+        <v>17</v>
+      </c>
+      <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>0.188</v>
+      </c>
+      <c r="G36">
+        <v>0.125</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.188</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.312</v>
+      </c>
+      <c r="L36">
+        <v>0.125</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>6.2E-2</v>
+      </c>
+      <c r="O36">
+        <f>SUM(F36:N36)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="str">
+        <f>LOOKUP(A37,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>YES</v>
       </c>
-      <c r="D27">
-        <v>0.28100000000000003</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0.219</v>
-      </c>
-      <c r="H27">
-        <v>6.2E-2</v>
-      </c>
-      <c r="I27">
-        <v>0.188</v>
-      </c>
-      <c r="J27">
-        <v>9.4E-2</v>
-      </c>
-      <c r="K27">
-        <v>6.2E-2</v>
-      </c>
-      <c r="L27">
-        <v>9.4E-2</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" t="str">
-        <f>LOOKUP(A28,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D28">
-        <v>0.222</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0.111</v>
-      </c>
-      <c r="G28">
-        <v>0.111</v>
-      </c>
-      <c r="H28">
-        <v>0.111</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0.111</v>
-      </c>
-      <c r="K28">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="0"/>
-        <v>0.99900000000000011</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" t="str">
-        <f>LOOKUP(A29,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D29">
-        <v>0.25</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0.125</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0.25</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0.375</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" t="str">
-        <f>LOOKUP(A30,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D30">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="J30">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
-        <v>1.0010000000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" t="str">
-        <f>LOOKUP(A31,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D31">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0.182</v>
-      </c>
-      <c r="H31">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="I31">
-        <v>0.182</v>
-      </c>
-      <c r="J31">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="K31">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="L31">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" t="str">
-        <f>LOOKUP(A32,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D32">
-        <v>0.2</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0.2</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0.2</v>
-      </c>
-      <c r="K32">
-        <v>0.2</v>
-      </c>
-      <c r="L32">
-        <v>0.2</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="str">
-        <f>LOOKUP(A33,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D33">
-        <v>0.32</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0.24</v>
-      </c>
-      <c r="H33">
-        <v>0.04</v>
-      </c>
-      <c r="I33">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J33">
-        <v>0.04</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0.08</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" t="str">
-        <f>LOOKUP(A34,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D34">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="J34">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="K34">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="L34">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" t="str">
-        <f>LOOKUP(A35,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D35">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="E35">
-        <v>2.4E-2</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="H35">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="I35">
-        <v>0.122</v>
-      </c>
-      <c r="J35">
-        <v>0.22</v>
-      </c>
-      <c r="K35">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="L35">
-        <v>0.22</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="0"/>
-        <v>1.0010000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" t="str">
-        <f>LOOKUP(A36,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D36">
-        <v>0.182</v>
-      </c>
-      <c r="E36">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0.182</v>
-      </c>
-      <c r="I36">
-        <v>0.182</v>
-      </c>
-      <c r="J36">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="K36">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="L36">
-        <v>0.182</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" t="str">
-        <f>LOOKUP(A37,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>NO</v>
-      </c>
       <c r="D37">
-        <v>0.152</v>
+        <v>93</v>
       </c>
       <c r="E37">
-        <v>0.03</v>
+        <v>92</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="G37">
-        <v>9.0999999999999998E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="H37">
-        <v>6.0999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I37">
-        <v>0.182</v>
+        <v>0.217</v>
       </c>
       <c r="J37">
-        <v>0.21199999999999999</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="K37">
-        <v>0.03</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="L37">
-        <v>0.24199999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="M37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N37">
+        <v>0.109</v>
+      </c>
+      <c r="O37">
+        <f>SUM(F37:N37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
       </c>
       <c r="C38" t="str">
-        <f>LOOKUP(A38,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <f>LOOKUP(A38,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D38">
+        <v>19</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="L38">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="M38">
+        <v>0.111</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f>SUM(F38:N38)</f>
+        <v>1.0010000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" t="str">
+        <f>LOOKUP(A39,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D39">
+        <v>110</v>
+      </c>
+      <c r="E39">
+        <v>105</v>
+      </c>
+      <c r="F39">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G39">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.01</v>
+      </c>
+      <c r="I39">
+        <v>0.124</v>
+      </c>
+      <c r="J39">
+        <v>0.01</v>
+      </c>
+      <c r="K39">
+        <v>0.114</v>
+      </c>
+      <c r="L39">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M39">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="N39">
+        <v>0.219</v>
+      </c>
+      <c r="O39">
+        <f>SUM(F39:N39)</f>
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="str">
+        <f>LOOKUP(A40,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D40">
+        <v>41</v>
+      </c>
+      <c r="E40">
+        <v>40</v>
+      </c>
+      <c r="F40">
+        <v>0.25</v>
+      </c>
+      <c r="G40">
+        <v>0.125</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.25</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="L40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M40">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f>SUM(F40:N40)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="str">
+        <f>LOOKUP(A41,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D41">
+        <v>129</v>
+      </c>
+      <c r="E41">
+        <v>123</v>
+      </c>
+      <c r="F41">
+        <v>0.252</v>
+      </c>
+      <c r="G41">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H41">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I41">
+        <v>0.22</v>
+      </c>
+      <c r="J41">
+        <v>2.4E-2</v>
+      </c>
+      <c r="K41">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="L41">
+        <v>0.106</v>
+      </c>
+      <c r="M41">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N41">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O41">
+        <f>SUM(F41:N41)</f>
+        <v>0.99899999999999989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="str">
+        <f>LOOKUP(A42,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f>SUM(F42:N42)</f>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="str">
+        <f>LOOKUP(A43,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D43">
+        <v>68</v>
+      </c>
+      <c r="E43">
+        <v>67</v>
+      </c>
+      <c r="F43">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="G43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H43">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I43">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="L43">
+        <v>0.03</v>
+      </c>
+      <c r="M43">
+        <v>0.03</v>
+      </c>
+      <c r="N43">
+        <v>0.03</v>
+      </c>
+      <c r="O43">
+        <f>SUM(F43:N43)</f>
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="str">
+        <f>LOOKUP(A44,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>NO</v>
       </c>
-      <c r="D38">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="E38">
-        <v>0.13</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="J38">
-        <v>0.26100000000000001</v>
-      </c>
-      <c r="K38">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="L38">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" t="str">
-        <f>LOOKUP(A39,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+      <c r="D44">
+        <v>23</v>
+      </c>
+      <c r="E44">
+        <v>21</v>
+      </c>
+      <c r="F44">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="I44">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="L44">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="M44">
+        <v>0.19</v>
+      </c>
+      <c r="N44">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="O44">
+        <f>SUM(F44:N44)</f>
+        <v>0.99899999999999989</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="str">
+        <f>LOOKUP(A45,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>NO</v>
       </c>
-      <c r="D39">
+      <c r="D45">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <v>65</v>
+      </c>
+      <c r="F45">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="G45">
+        <v>3.1E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="I45">
+        <v>0.108</v>
+      </c>
+      <c r="J45">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K45">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="L45">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="M45">
+        <v>0.246</v>
+      </c>
+      <c r="N45">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O45">
+        <f>SUM(F45:N45)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="str">
+        <f>LOOKUP(A46,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D46">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>28</v>
+      </c>
+      <c r="F46">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="G46">
+        <v>0.107</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="M46">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="N46">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O46">
+        <f>SUM(F46:N46)</f>
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="str">
+        <f>LOOKUP(A47,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D47">
+        <v>94</v>
+      </c>
+      <c r="E47">
+        <v>89</v>
+      </c>
+      <c r="F47">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="G47">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H47">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I47">
+        <v>0.191</v>
+      </c>
+      <c r="J47">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K47">
+        <v>0.157</v>
+      </c>
+      <c r="L47">
+        <v>0.18</v>
+      </c>
+      <c r="M47">
+        <v>0.09</v>
+      </c>
+      <c r="N47">
+        <v>0.112</v>
+      </c>
+      <c r="O47">
+        <f>SUM(F47:N47)</f>
+        <v>0.99899999999999989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" t="str">
+        <f>LOOKUP(A48,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D48">
+        <v>101</v>
+      </c>
+      <c r="E48">
+        <v>98</v>
+      </c>
+      <c r="F48">
+        <v>0.245</v>
+      </c>
+      <c r="G48">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.01</v>
+      </c>
+      <c r="I48">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="J48">
+        <v>0.01</v>
+      </c>
+      <c r="K48">
+        <v>0.245</v>
+      </c>
+      <c r="L48">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="M48">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="N48">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E39">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="J39">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" t="str">
-        <f>LOOKUP(A40,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D40">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="E40">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0.28399999999999997</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0.25900000000000001</v>
-      </c>
-      <c r="J40">
-        <v>7.8E-2</v>
-      </c>
-      <c r="K40">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="L40">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C41" t="str">
-        <f>LOOKUP(A41,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D41">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="E41">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0.129</v>
-      </c>
-      <c r="J41">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="K41">
-        <v>0.129</v>
-      </c>
-      <c r="L41">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="0"/>
-        <v>1.002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" t="str">
-        <f>LOOKUP(A42,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D42">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0.25</v>
-      </c>
-      <c r="H42">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I42">
-        <v>0.26900000000000002</v>
-      </c>
-      <c r="J42">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="K42">
-        <v>1.9E-2</v>
-      </c>
-      <c r="L42">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="0"/>
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="str">
-        <f>LOOKUP(A43,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D43">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="E43">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="H43">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="I43">
-        <v>0.26600000000000001</v>
-      </c>
-      <c r="J43">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="K43">
-        <v>0.04</v>
-      </c>
-      <c r="L43">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="0"/>
-        <v>0.99900000000000011</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" t="str">
-        <f>LOOKUP(A44,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D44">
-        <v>0.216</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0.182</v>
-      </c>
-      <c r="H44">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="I44">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="J44">
-        <v>0.20499999999999999</v>
-      </c>
-      <c r="K44">
-        <v>0.08</v>
-      </c>
-      <c r="L44">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="0"/>
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" t="str">
-        <f>LOOKUP(A45,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D45">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="E45">
-        <v>0.121</v>
-      </c>
-      <c r="F45">
-        <v>1.9E-2</v>
-      </c>
-      <c r="G45">
-        <v>0.159</v>
-      </c>
-      <c r="H45">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I45">
-        <v>0.224</v>
-      </c>
-      <c r="J45">
-        <v>0.121</v>
-      </c>
-      <c r="K45">
-        <v>9.2999999999999999E-2</v>
-      </c>
-      <c r="L45">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="0"/>
-        <v>0.99899999999999989</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" t="str">
-        <f>LOOKUP(A46,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D46">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="E46">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="J46">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="K46">
-        <v>0.03</v>
-      </c>
-      <c r="L46">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="0"/>
-        <v>0.99900000000000011</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" t="str">
-        <f>LOOKUP(A47,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D47">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E47">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0.318</v>
-      </c>
-      <c r="J47">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="K47">
-        <v>1.2E-2</v>
-      </c>
-      <c r="L47">
-        <v>0.02</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="str">
-        <f>LOOKUP(A48,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
-        <v>YES</v>
-      </c>
-      <c r="D48">
-        <v>0.188</v>
-      </c>
-      <c r="E48">
-        <v>3.1E-2</v>
-      </c>
-      <c r="F48">
-        <v>3.1E-2</v>
-      </c>
-      <c r="G48">
-        <v>0.188</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0.125</v>
-      </c>
-      <c r="J48">
-        <v>0.219</v>
-      </c>
-      <c r="K48">
-        <v>0.125</v>
-      </c>
-      <c r="L48">
-        <v>9.4E-2</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="0"/>
-        <v>1.0009999999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <f>SUM(F48:N48)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
       <c r="C49" t="str">
-        <f>LOOKUP(A49,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <f>LOOKUP(A49,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>YES</v>
       </c>
       <c r="D49">
-        <v>0.311</v>
+        <v>2</v>
       </c>
       <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f>SUM(F49:N49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" t="str">
+        <f>LOOKUP(A50,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D50">
+        <v>149</v>
+      </c>
+      <c r="E50">
+        <v>147</v>
+      </c>
+      <c r="F50">
+        <v>0.252</v>
+      </c>
+      <c r="G50">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H50">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I50">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="J50">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K50">
+        <v>0.19</v>
+      </c>
+      <c r="L50">
+        <v>0.129</v>
+      </c>
+      <c r="M50">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="N50">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="O50">
+        <f>SUM(F50:N50)</f>
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" t="str">
+        <f>LOOKUP(A51,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D51">
+        <v>57</v>
+      </c>
+      <c r="E51">
+        <v>56</v>
+      </c>
+      <c r="F51">
+        <v>0.25</v>
+      </c>
+      <c r="G51">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H51">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I51">
+        <v>0.214</v>
+      </c>
+      <c r="J51">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K51">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="L51">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M51">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="N51">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O51">
+        <f>SUM(F51:N51)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="str">
+        <f>LOOKUP(A52,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52">
+        <v>39</v>
+      </c>
+      <c r="F52">
+        <v>0.128</v>
+      </c>
+      <c r="G52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.128</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0.308</v>
+      </c>
+      <c r="M52">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="N52">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="O52">
+        <f>SUM(F52:N52)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="str">
+        <f>LOOKUP(A53,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D53">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>25</v>
+      </c>
+      <c r="F53">
+        <v>0.24</v>
+      </c>
+      <c r="G53">
+        <v>0.04</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0.24</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0.16</v>
+      </c>
+      <c r="L53">
+        <v>0.16</v>
+      </c>
+      <c r="M53">
+        <v>0.12</v>
+      </c>
+      <c r="N53">
+        <v>0.04</v>
+      </c>
+      <c r="O53">
+        <f>SUM(F53:N53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" t="str">
+        <f>LOOKUP(A54,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D54">
+        <v>391</v>
+      </c>
+      <c r="E54">
+        <v>381</v>
+      </c>
+      <c r="F54">
+        <v>0.252</v>
+      </c>
+      <c r="G54">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="J54">
+        <v>0.01</v>
+      </c>
+      <c r="K54">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="L54">
+        <v>0.129</v>
+      </c>
+      <c r="M54">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N54">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="O54">
+        <f>SUM(F54:N54)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="str">
+        <f>LOOKUP(A55,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D55">
+        <v>65</v>
+      </c>
+      <c r="E55">
+        <v>62</v>
+      </c>
+      <c r="F55">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J55">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K55">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L55">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M55">
+        <v>1.6E-2</v>
+      </c>
+      <c r="N55">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O55">
+        <f>SUM(F55:N55)</f>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="str">
+        <f>LOOKUP(A56,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D56">
+        <v>192</v>
+      </c>
+      <c r="E56">
+        <v>188</v>
+      </c>
+      <c r="F56">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="G56">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="J56">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K56">
+        <v>0.314</v>
+      </c>
+      <c r="L56">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M56">
+        <v>1.6E-2</v>
+      </c>
+      <c r="N56">
+        <v>1.6E-2</v>
+      </c>
+      <c r="O56">
+        <f>SUM(F56:N56)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="str">
+        <f>LOOKUP(A57,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D57">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0.5</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0.5</v>
+      </c>
+      <c r="O57">
+        <f>SUM(F57:N57)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58" t="str">
+        <f>LOOKUP(A58,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D58">
+        <v>99</v>
+      </c>
+      <c r="E58">
+        <v>93</v>
+      </c>
+      <c r="F58">
+        <v>0.183</v>
+      </c>
+      <c r="G58">
+        <v>0.129</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J58">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K58">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="L58">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M58">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N58">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="O58">
+        <f>SUM(F58:N58)</f>
+        <v>1.002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="str">
+        <f>LOOKUP(A59,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D59">
+        <v>41</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.3</v>
+      </c>
+      <c r="G59">
+        <v>0.05</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.3</v>
+      </c>
+      <c r="L59">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M59">
+        <v>0.05</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f>SUM(F59:N59)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" t="str">
+        <f>LOOKUP(A60,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D60">
+        <v>34</v>
+      </c>
+      <c r="E60">
+        <v>33</v>
+      </c>
+      <c r="F60">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G60">
+        <v>0.03</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="L60">
+        <v>0.121</v>
+      </c>
+      <c r="M60">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f>SUM(F60:N60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" t="str">
+        <f>LOOKUP(A61,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D61">
+        <v>560</v>
+      </c>
+      <c r="E61">
+        <v>548</v>
+      </c>
+      <c r="F61">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="G61">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H61">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I61">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="J61">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K61">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="L61">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="M61">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="N61">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O61">
+        <f>SUM(F61:N61)</f>
+        <v>0.99800000000000011</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" t="str">
+        <f>LOOKUP(A62,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D62">
+        <v>329</v>
+      </c>
+      <c r="E62">
+        <v>315</v>
+      </c>
+      <c r="F62">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G62">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>1.4E-2</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="0"/>
+      <c r="H62">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="I62">
+        <v>0.21</v>
+      </c>
+      <c r="J62">
+        <v>1.9E-2</v>
+      </c>
+      <c r="K62">
+        <v>0.21</v>
+      </c>
+      <c r="L62">
+        <v>0.114</v>
+      </c>
+      <c r="M62">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N62">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="O62">
+        <f>SUM(F62:N62)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="str">
+        <f>LOOKUP(A63,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D63">
+        <v>127</v>
+      </c>
+      <c r="E63">
+        <v>122</v>
+      </c>
+      <c r="F63">
+        <v>0.221</v>
+      </c>
+      <c r="G63">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="J63">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K63">
+        <v>0.221</v>
+      </c>
+      <c r="L63">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M63">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="N63">
+        <v>0.107</v>
+      </c>
+      <c r="O63">
+        <f>SUM(F63:N63)</f>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" t="str">
+        <f>LOOKUP(A64,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D64">
+        <v>181</v>
+      </c>
+      <c r="E64">
+        <v>177</v>
+      </c>
+      <c r="F64">
+        <v>0.22</v>
+      </c>
+      <c r="G64">
+        <v>0.04</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="J64">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K64">
+        <v>0.22</v>
+      </c>
+      <c r="L64">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="M64">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="N64">
+        <v>0.13</v>
+      </c>
+      <c r="O64">
+        <f>SUM(F64:N64)</f>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="str">
+        <f>LOOKUP(A65,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D65">
+        <v>91</v>
+      </c>
+      <c r="E65">
+        <v>88</v>
+      </c>
+      <c r="F65">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="G65">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H65">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I65">
+        <v>0.25</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0.25</v>
+      </c>
+      <c r="L65">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="M65">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N65">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O65">
+        <f>SUM(F65:N65)</f>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66" t="str">
+        <f>LOOKUP(A66,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G66">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="L66">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M66">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f>SUM(F66:N66)</f>
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="str">
+        <f>LOOKUP(A67,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D67">
+        <v>148</v>
+      </c>
+      <c r="E67">
+        <v>141</v>
+      </c>
+      <c r="F67">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G67">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H67">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I67">
+        <v>0.27</v>
+      </c>
+      <c r="J67">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K67">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="L67">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="M67">
+        <v>0.05</v>
+      </c>
+      <c r="N67">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O67">
+        <f>SUM(F67:N67)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" t="str">
+        <f>LOOKUP(A68,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D68">
+        <v>32</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
+      </c>
+      <c r="F68">
+        <v>0.3</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0.3</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="L68">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="M68">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="N68">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="O68">
+        <f>SUM(F68:N68)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="str">
+        <f>LOOKUP(A69,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D69">
+        <v>23</v>
+      </c>
+      <c r="E69">
+        <v>21</v>
+      </c>
+      <c r="F69">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="G69">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0.19</v>
+      </c>
+      <c r="J69">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K69">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="L69">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M69">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="N69">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O69">
+        <f>SUM(F69:N69)</f>
         <v>1.0010000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="str">
+        <f>LOOKUP(A70,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
         <v>15</v>
       </c>
-      <c r="C50" t="str">
-        <f>LOOKUP(A50,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+      <c r="F70">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="G70">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L70">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="M70">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="N70">
+        <v>0.2</v>
+      </c>
+      <c r="O70">
+        <f>SUM(F70:N70)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="str">
+        <f>LOOKUP(A71,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>YES</v>
       </c>
-      <c r="D50">
-        <v>0.25800000000000001</v>
-      </c>
-      <c r="E50">
-        <v>2.1999999999999999E-2</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0.247</v>
-      </c>
-      <c r="H50">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="I50">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="J50">
-        <v>0.108</v>
-      </c>
-      <c r="K50">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="L50">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="0"/>
+      <c r="D71">
+        <v>22</v>
+      </c>
+      <c r="E71">
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>0.222</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J71">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="K71">
+        <v>0.111</v>
+      </c>
+      <c r="L71">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="M71">
+        <v>0.111</v>
+      </c>
+      <c r="N71">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="O71">
+        <f>SUM(F71:N71)</f>
         <v>1.0010000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" t="str">
-        <f>LOOKUP(A51,'DATA SHEET'!$A$2:$A$253,'DATA SHEET'!$R$2:$R$253)</f>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="str">
+        <f>LOOKUP(A72,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
         <v>YES</v>
       </c>
-      <c r="D51">
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="E51">
-        <v>0.156</v>
-      </c>
-      <c r="F51">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="G51">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="H51">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="I51">
+      <c r="D72">
+        <v>31</v>
+      </c>
+      <c r="E72">
+        <v>28</v>
+      </c>
+      <c r="F72">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G72">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.107</v>
+      </c>
+      <c r="K72">
+        <v>0.107</v>
+      </c>
+      <c r="L72">
+        <v>0.214</v>
+      </c>
+      <c r="M72">
+        <v>0.107</v>
+      </c>
+      <c r="N72">
+        <v>0.214</v>
+      </c>
+      <c r="O72">
+        <f>SUM(F72:N72)</f>
+        <v>0.99899999999999989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="str">
+        <f>LOOKUP(A73,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D73">
+        <v>35</v>
+      </c>
+      <c r="E73">
+        <v>32</v>
+      </c>
+      <c r="F73">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0.219</v>
+      </c>
+      <c r="J73">
+        <v>6.2E-2</v>
+      </c>
+      <c r="K73">
+        <v>0.188</v>
+      </c>
+      <c r="L73">
+        <v>9.4E-2</v>
+      </c>
+      <c r="M73">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N73">
+        <v>9.4E-2</v>
+      </c>
+      <c r="O73">
+        <f>SUM(F73:N73)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="str">
+        <f>LOOKUP(A74,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D74">
+        <v>11</v>
+      </c>
+      <c r="E74">
+        <v>9</v>
+      </c>
+      <c r="F74">
+        <v>0.222</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0.111</v>
+      </c>
+      <c r="I74">
+        <v>0.111</v>
+      </c>
+      <c r="J74">
+        <v>0.111</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0.111</v>
+      </c>
+      <c r="M74">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f>SUM(F74:N74)</f>
+        <v>0.99900000000000011</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" t="str">
+        <f>LOOKUP(A75,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75">
         <v>0.25</v>
       </c>
-      <c r="J51">
-        <v>0.106</v>
-      </c>
-      <c r="K51">
-        <v>8.6999999999999994E-2</v>
-      </c>
-      <c r="L51">
-        <v>3.6999999999999998E-2</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>99</v>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0.125</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0.25</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0.375</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f>SUM(F75:N75)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="str">
+        <f>LOOKUP(A76,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D76">
+        <v>26</v>
+      </c>
+      <c r="E76">
+        <v>24</v>
+      </c>
+      <c r="F76">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L76">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O76">
+        <f>SUM(F76:N76)</f>
+        <v>1.0010000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="str">
+        <f>LOOKUP(A77,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D77">
+        <v>12</v>
+      </c>
+      <c r="E77">
+        <v>11</v>
+      </c>
+      <c r="F77">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0.182</v>
+      </c>
+      <c r="J77">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="K77">
+        <v>0.182</v>
+      </c>
+      <c r="L77">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="M77">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N77">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="O77">
+        <f>SUM(F77:N77)</f>
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="str">
+        <f>LOOKUP(A78,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <v>0.2</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0.2</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0.2</v>
+      </c>
+      <c r="M78">
+        <v>0.2</v>
+      </c>
+      <c r="N78">
+        <v>0.2</v>
+      </c>
+      <c r="O78">
+        <f>SUM(F78:N78)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" t="str">
+        <f>LOOKUP(A79,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D79">
+        <v>27</v>
+      </c>
+      <c r="E79">
+        <v>25</v>
+      </c>
+      <c r="F79">
+        <v>0.32</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0.24</v>
+      </c>
+      <c r="J79">
+        <v>0.04</v>
+      </c>
+      <c r="K79">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L79">
+        <v>0.04</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0.08</v>
+      </c>
+      <c r="O79">
+        <f>SUM(F79:N79)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80" t="str">
+        <f>LOOKUP(A80,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="L80">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="M80">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="N80">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="O80">
+        <f>SUM(F80:N80)</f>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" t="str">
+        <f>LOOKUP(A81,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D81">
+        <v>44</v>
+      </c>
+      <c r="E81">
+        <v>41</v>
+      </c>
+      <c r="F81">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="G81">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J81">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K81">
+        <v>0.122</v>
+      </c>
+      <c r="L81">
+        <v>0.22</v>
+      </c>
+      <c r="M81">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="N81">
+        <v>0.22</v>
+      </c>
+      <c r="O81">
+        <f>SUM(F81:N81)</f>
+        <v>1.0010000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" t="str">
+        <f>LOOKUP(A82,'DATA SHEET'!$B$2:$B$253,'DATA SHEET'!$R$2:$R$253)</f>
+        <v>YES</v>
+      </c>
+      <c r="D82">
+        <v>13</v>
+      </c>
+      <c r="E82">
+        <v>11</v>
+      </c>
+      <c r="F82">
+        <v>0.182</v>
+      </c>
+      <c r="G82">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0.182</v>
+      </c>
+      <c r="K82">
+        <v>0.182</v>
+      </c>
+      <c r="L82">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="M82">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="N82">
+        <v>0.182</v>
+      </c>
+      <c r="O82">
+        <f>SUM(F82:N82)</f>
+        <v>1.0009999999999999</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O82" xr:uid="{AD6CC417-5CA3-4E85-A811-2FB065E3363F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O82">
+      <sortCondition ref="A1:A82"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05AA76F-6C29-41D8-94BC-2F221F173FB9}">
+  <dimension ref="A1:P10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2">
+        <v>4200</v>
+      </c>
+      <c r="C2">
+        <v>4040</v>
+      </c>
+      <c r="D2">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G2">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H2">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="K2">
+        <v>0.214</v>
+      </c>
+      <c r="L2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M2">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.122</v>
+      </c>
+      <c r="O2">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="P2">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3">
+        <v>2212</v>
+      </c>
+      <c r="C3">
+        <v>2128</v>
+      </c>
+      <c r="D3">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="E3">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="I3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K3">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.01</v>
+      </c>
+      <c r="M3">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.114</v>
+      </c>
+      <c r="O3">
+        <v>0.05</v>
+      </c>
+      <c r="P3">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B4">
+        <v>5468</v>
+      </c>
+      <c r="C4">
+        <v>5281</v>
+      </c>
+      <c r="D4">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E4">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="F4">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.246</v>
+      </c>
+      <c r="I4">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="J4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.23</v>
+      </c>
+      <c r="L4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.11</v>
+      </c>
+      <c r="O4">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="P4">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5">
+        <v>944</v>
+      </c>
+      <c r="C5">
+        <v>887</v>
+      </c>
+      <c r="D5">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="E5">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.183</v>
+      </c>
+      <c r="I5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.15</v>
+      </c>
+      <c r="L5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="O5">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6">
+        <v>3928</v>
+      </c>
+      <c r="C6">
+        <v>3792</v>
+      </c>
+      <c r="D6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.23</v>
+      </c>
+      <c r="F6">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.158</v>
+      </c>
+      <c r="H6">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="I6">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.219</v>
+      </c>
+      <c r="L6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.216</v>
+      </c>
+      <c r="N6">
+        <v>0.121</v>
+      </c>
+      <c r="O6">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="P6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7">
+        <v>272</v>
+      </c>
+      <c r="C7">
+        <v>248</v>
+      </c>
+      <c r="D7">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="I7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K7">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0.04</v>
+      </c>
+      <c r="M7">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.125</v>
+      </c>
+      <c r="O7">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="P7">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8">
+        <v>1540</v>
+      </c>
+      <c r="C8">
+        <v>1489</v>
+      </c>
+      <c r="D8">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="G8">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="I8">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J8">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K8">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="L8">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="M8">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="N8">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O8">
+        <v>3.9E-2</v>
+      </c>
+      <c r="P8">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B9">
+        <v>672</v>
+      </c>
+      <c r="C9">
+        <v>639</v>
+      </c>
+      <c r="D9">
+        <v>0.246</v>
+      </c>
+      <c r="E9">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="F9">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G9">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.185</v>
+      </c>
+      <c r="I9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K9">
+        <v>0.156</v>
+      </c>
+      <c r="L9">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="N9">
+        <v>0.186</v>
+      </c>
+      <c r="O9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P9">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10">
+        <v>6412</v>
+      </c>
+      <c r="C10">
+        <v>6168</v>
+      </c>
+      <c r="D10">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="E10">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.157</v>
+      </c>
+      <c r="H10">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="I10">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="J10">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.218</v>
+      </c>
+      <c r="L10">
+        <v>1.4E-2</v>
+      </c>
+      <c r="M10">
+        <v>0.22</v>
+      </c>
+      <c r="N10">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="O10">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="P10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55169A43-E853-4F59-A3CB-88F1BE6BCB46}">
   <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -36238,7 +38660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47E26F3-4500-4F9A-8EB5-A01A3B91B444}">
   <dimension ref="A1:Y28"/>
   <sheetViews>

--- a/Data & Scripts/Full_Crow_Data.xlsx
+++ b/Data & Scripts/Full_Crow_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Alex-Popescu-Thesis-2023\Data &amp; Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473AACD2-EE33-488A-97D2-E3A0673C7A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79796E48-3EEB-4FE9-B1F9-9474486CD747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3150" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{359FEB76-43F5-4253-AE07-674275EDB72D}"/>
+    <workbookView xWindow="-28920" yWindow="3150" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{359FEB76-43F5-4253-AE07-674275EDB72D}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA SHEET" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3006" uniqueCount="391">
   <si>
     <t>RECORDED_DURATION</t>
   </si>
@@ -626,9 +626,6 @@
     <t>ID# of the observation. First five digits are the video ID, and the last two are the individual observed.</t>
   </si>
   <si>
-    <t>Total recorded duration for the individual. Calculated by summing the duration of each behavior.</t>
-  </si>
-  <si>
     <t>ID# of the coded video.</t>
   </si>
   <si>
@@ -647,9 +644,6 @@
     <t>Decimal time of the beginning of the observation.</t>
   </si>
   <si>
-    <t>Total duration of the video. Includes time with crows not on screen or away from the site.</t>
-  </si>
-  <si>
     <t>Generalized environment in which the individuals are foraging in. Either "Green area" or "Commercial".</t>
   </si>
   <si>
@@ -666,12 +660,6 @@
   </si>
   <si>
     <t>Number of bouts observed of the behavior.</t>
-  </si>
-  <si>
-    <t>Total duration of the observed behavior.</t>
-  </si>
-  <si>
-    <t>Mean duration of bouts of the observed behavior.</t>
   </si>
   <si>
     <t>Standard deviation of the bouts.</t>
@@ -702,9 +690,6 @@
   </si>
   <si>
     <t>Number of vehicular disturbances.</t>
-  </si>
-  <si>
-    <t>Frequency of  disturbances. Calculated as total number of disturbances / Total video duration.</t>
   </si>
   <si>
     <t>045</t>
@@ -1127,12 +1112,6 @@
     <t>PECK_RATE</t>
   </si>
   <si>
-    <t>Peck rate in pecks per minute. Calculated as number of pecks/time with head down.</t>
-  </si>
-  <si>
-    <t>Ambient temperature during the recording.</t>
-  </si>
-  <si>
     <t>Weather during the recording.</t>
   </si>
   <si>
@@ -1240,6 +1219,81 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>HD-&gt;HU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Total number of individual behaviors performed by the individual.</t>
+  </si>
+  <si>
+    <t>Ambient temperature during the recording. In deg. C.</t>
+  </si>
+  <si>
+    <t>Total duration of the video. Includes time with crows not on screen or away from the site. In seconds (s).</t>
+  </si>
+  <si>
+    <t>Total recorded duration for the individual. Calculated by summing the duration of each behavior. In seconds (s)</t>
+  </si>
+  <si>
+    <t>Total duration of the observed behavior. In seconds (s).</t>
+  </si>
+  <si>
+    <t>Mean duration of bouts of the observed behavior. In seconds (s).</t>
+  </si>
+  <si>
+    <t>Peck rate in pecks per minute. Calculated as number of pecks/time with head down. In pecks per minute (Peck/min).</t>
+  </si>
+  <si>
+    <t>Frequency of  disturbances. Calculated as total number of disturbances / Total video duration. In disturbances per minute.</t>
+  </si>
+  <si>
+    <t>Total number of transitions between behaviors observed.</t>
+  </si>
+  <si>
+    <t>Check to see if all frequencies add up to ~1 (rounding).</t>
+  </si>
+  <si>
+    <t>Frequency of 'Head Up' following 'Head Down + Peck at Food/Bait'.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Moving' following 'Head Down'.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Head Up' following 'Head Down'.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Head Down + Peck at Food/Bait' following 'Head Down'.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Moving' following 'Head Down + Peck at Food/Bait'.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Head Down' following 'Head Up'.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Moving' following 'Head Up'.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Head Down' following 'Moving'.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Head Up' following' Moving'.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Head Down' behavior overall.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Head Down + Peck at Food/Bait' behavior overall.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Head Up' behavior overall.</t>
+  </si>
+  <si>
+    <t>Frequency of 'Moving' behavior overall.</t>
+  </si>
 </sst>
 </file>
 
@@ -1318,7 +1372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1353,6 +1407,7 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1697,9 +1752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFDFE044-5B9F-4B72-8852-454C420DBA40}">
   <dimension ref="A1:AJ391"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="W1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122:XFD122"/>
+      <selection pane="bottomLeft" activeCell="AJ118" sqref="AJ118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,10 +1794,10 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C1" s="18" t="s">
         <v>24</v>
@@ -1757,7 +1812,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>4</v>
@@ -1766,10 +1821,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>34</v>
@@ -1778,13 +1833,13 @@
         <v>0</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>2</v>
@@ -1796,7 +1851,7 @@
         <v>11</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>6</v>
@@ -1820,7 +1875,7 @@
         <v>12</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="AC1" s="3" t="s">
         <v>60</v>
@@ -32544,13 +32599,13 @@
     </row>
     <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D248" t="str">
         <f t="shared" si="50"/>
@@ -32561,7 +32616,7 @@
         <v>20227921</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G248" s="5">
         <f t="shared" si="52"/>
@@ -32668,13 +32723,13 @@
     </row>
     <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D249" t="str">
         <f t="shared" si="50"/>
@@ -32685,7 +32740,7 @@
         <v>20227921</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G249" s="5">
         <f t="shared" si="52"/>
@@ -32792,13 +32847,13 @@
     </row>
     <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D250" t="str">
         <f t="shared" si="50"/>
@@ -32809,7 +32864,7 @@
         <v>20227921</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G250" s="5">
         <f t="shared" si="52"/>
@@ -32916,13 +32971,13 @@
     </row>
     <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B251" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C251" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D251" s="4" t="str">
         <f t="shared" si="50"/>
@@ -32933,7 +32988,7 @@
         <v>20227921</v>
       </c>
       <c r="F251" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G251" s="20">
         <f t="shared" si="52"/>
@@ -33040,13 +33095,13 @@
     </row>
     <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B252" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C252" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D252" s="4" t="str">
         <f t="shared" si="50"/>
@@ -33057,7 +33112,7 @@
         <v>20227921</v>
       </c>
       <c r="F252" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G252" s="20">
         <f t="shared" si="52"/>
@@ -33164,13 +33219,13 @@
     </row>
     <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C253" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D253" s="4" t="str">
         <f t="shared" si="50"/>
@@ -33181,7 +33236,7 @@
         <v>20227921</v>
       </c>
       <c r="F253" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G253" s="20">
         <f t="shared" si="52"/>
@@ -33712,8 +33767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6CC417-5CA3-4E85-A811-2FB065E3363F}">
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -33737,7 +33792,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -33746,40 +33801,40 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -33827,7 +33882,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="O2">
-        <f>SUM(F2:N2)</f>
+        <f t="shared" ref="O2:O33" si="0">SUM(F2:N2)</f>
         <v>1</v>
       </c>
     </row>
@@ -33876,7 +33931,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="O3">
-        <f>SUM(F3:N3)</f>
+        <f t="shared" si="0"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -33925,7 +33980,7 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="O4">
-        <f>SUM(F4:N4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -33974,7 +34029,7 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="O5">
-        <f>SUM(F5:N5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -34023,7 +34078,7 @@
         <v>0.17399999999999999</v>
       </c>
       <c r="O6">
-        <f>SUM(F6:N6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -34072,7 +34127,7 @@
         <v>0.107</v>
       </c>
       <c r="O7">
-        <f>SUM(F7:N7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -34121,7 +34176,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O8">
-        <f>SUM(F8:N8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -34170,7 +34225,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O9">
-        <f>SUM(F9:N9)</f>
+        <f t="shared" si="0"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -34219,7 +34274,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="O10">
-        <f>SUM(F10:N10)</f>
+        <f t="shared" si="0"/>
         <v>1.002</v>
       </c>
     </row>
@@ -34268,7 +34323,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="O11">
-        <f>SUM(F11:N11)</f>
+        <f t="shared" si="0"/>
         <v>0.99900000000000011</v>
       </c>
     </row>
@@ -34317,7 +34372,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="O12">
-        <f>SUM(F12:N12)</f>
+        <f t="shared" si="0"/>
         <v>0.999</v>
       </c>
     </row>
@@ -34366,7 +34421,7 @@
         <v>0.14799999999999999</v>
       </c>
       <c r="O13">
-        <f>SUM(F13:N13)</f>
+        <f t="shared" si="0"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -34415,7 +34470,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="O14">
-        <f>SUM(F14:N14)</f>
+        <f t="shared" si="0"/>
         <v>0.99899999999999989</v>
       </c>
     </row>
@@ -34464,7 +34519,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="O15">
-        <f>SUM(F15:N15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -34513,7 +34568,7 @@
         <v>0.108</v>
       </c>
       <c r="O16">
-        <f>SUM(F16:N16)</f>
+        <f t="shared" si="0"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -34562,7 +34617,7 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="O17">
-        <f>SUM(F17:N17)</f>
+        <f t="shared" si="0"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -34611,7 +34666,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="O18">
-        <f>SUM(F18:N18)</f>
+        <f t="shared" si="0"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -34660,7 +34715,7 @@
         <v>0.254</v>
       </c>
       <c r="O19">
-        <f>SUM(F19:N19)</f>
+        <f t="shared" si="0"/>
         <v>0.99899999999999989</v>
       </c>
     </row>
@@ -34709,7 +34764,7 @@
         <v>0.02</v>
       </c>
       <c r="O20">
-        <f>SUM(F20:N20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -34758,7 +34813,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O21">
-        <f>SUM(F21:N21)</f>
+        <f t="shared" si="0"/>
         <v>0.99900000000000011</v>
       </c>
     </row>
@@ -34807,7 +34862,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="O22">
-        <f>SUM(F22:N22)</f>
+        <f t="shared" si="0"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -34856,7 +34911,7 @@
         <v>0.157</v>
       </c>
       <c r="O23">
-        <f>SUM(F23:N23)</f>
+        <f t="shared" si="0"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -34905,7 +34960,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O24">
-        <f>SUM(F24:N24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -34954,7 +35009,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="O25">
-        <f>SUM(F25:N25)</f>
+        <f t="shared" si="0"/>
         <v>0.99899999999999989</v>
       </c>
     </row>
@@ -35003,7 +35058,7 @@
         <v>1.4E-2</v>
       </c>
       <c r="O26">
-        <f>SUM(F26:N26)</f>
+        <f t="shared" si="0"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -35052,7 +35107,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="O27">
-        <f>SUM(F27:N27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35101,7 +35156,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O28">
-        <f>SUM(F28:N28)</f>
+        <f t="shared" si="0"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -35150,7 +35205,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="O29">
-        <f>SUM(F29:N29)</f>
+        <f t="shared" si="0"/>
         <v>0.99900000000000011</v>
       </c>
     </row>
@@ -35199,7 +35254,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O30">
-        <f>SUM(F30:N30)</f>
+        <f t="shared" si="0"/>
         <v>0.99900000000000011</v>
       </c>
     </row>
@@ -35248,7 +35303,7 @@
         <v>0.11</v>
       </c>
       <c r="O31">
-        <f>SUM(F31:N31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35297,7 +35352,7 @@
         <v>0.6</v>
       </c>
       <c r="O32">
-        <f>SUM(F32:N32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35346,7 +35401,7 @@
         <v>0.218</v>
       </c>
       <c r="O33">
-        <f>SUM(F33:N33)</f>
+        <f t="shared" si="0"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -35395,7 +35450,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f>SUM(F34:N34)</f>
+        <f t="shared" ref="O34:O65" si="1">SUM(F34:N34)</f>
         <v>0.99900000000000011</v>
       </c>
     </row>
@@ -35444,7 +35499,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="O35">
-        <f>SUM(F35:N35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -35493,7 +35548,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="O36">
-        <f>SUM(F36:N36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -35542,7 +35597,7 @@
         <v>0.109</v>
       </c>
       <c r="O37">
-        <f>SUM(F37:N37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -35591,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <f>SUM(F38:N38)</f>
+        <f t="shared" si="1"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -35640,7 +35695,7 @@
         <v>0.219</v>
       </c>
       <c r="O39">
-        <f>SUM(F39:N39)</f>
+        <f t="shared" si="1"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -35689,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <f>SUM(F40:N40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -35738,7 +35793,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="O41">
-        <f>SUM(F41:N41)</f>
+        <f t="shared" si="1"/>
         <v>0.99899999999999989</v>
       </c>
     </row>
@@ -35787,7 +35842,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <f>SUM(F42:N42)</f>
+        <f t="shared" si="1"/>
         <v>0.99900000000000011</v>
       </c>
     </row>
@@ -35836,7 +35891,7 @@
         <v>0.03</v>
       </c>
       <c r="O43">
-        <f>SUM(F43:N43)</f>
+        <f t="shared" si="1"/>
         <v>1.002</v>
       </c>
     </row>
@@ -35885,7 +35940,7 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="O44">
-        <f>SUM(F44:N44)</f>
+        <f t="shared" si="1"/>
         <v>0.99899999999999989</v>
       </c>
     </row>
@@ -35934,7 +35989,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="O45">
-        <f>SUM(F45:N45)</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -35983,7 +36038,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="O46">
-        <f>SUM(F46:N46)</f>
+        <f t="shared" si="1"/>
         <v>1.002</v>
       </c>
     </row>
@@ -36032,7 +36087,7 @@
         <v>0.112</v>
       </c>
       <c r="O47">
-        <f>SUM(F47:N47)</f>
+        <f t="shared" si="1"/>
         <v>0.99899999999999989</v>
       </c>
     </row>
@@ -36081,7 +36136,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="O48">
-        <f>SUM(F48:N48)</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -36130,7 +36185,7 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <f>SUM(F49:N49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36179,7 +36234,7 @@
         <v>8.2000000000000003E-2</v>
       </c>
       <c r="O50">
-        <f>SUM(F50:N50)</f>
+        <f t="shared" si="1"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -36228,7 +36283,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="O51">
-        <f>SUM(F51:N51)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36277,7 +36332,7 @@
         <v>0.25600000000000001</v>
       </c>
       <c r="O52">
-        <f>SUM(F52:N52)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36326,7 +36381,7 @@
         <v>0.04</v>
       </c>
       <c r="O53">
-        <f>SUM(F53:N53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36375,7 +36430,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="O54">
-        <f>SUM(F54:N54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36424,7 +36479,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="O55">
-        <f>SUM(F55:N55)</f>
+        <f t="shared" si="1"/>
         <v>0.998</v>
       </c>
     </row>
@@ -36473,7 +36528,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="O56">
-        <f>SUM(F56:N56)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36522,7 +36577,7 @@
         <v>0.5</v>
       </c>
       <c r="O57">
-        <f>SUM(F57:N57)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36571,7 +36626,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="O58">
-        <f>SUM(F58:N58)</f>
+        <f t="shared" si="1"/>
         <v>1.002</v>
       </c>
     </row>
@@ -36620,7 +36675,7 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <f>SUM(F59:N59)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36669,7 +36724,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <f>SUM(F60:N60)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36718,7 +36773,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="O61">
-        <f>SUM(F61:N61)</f>
+        <f t="shared" si="1"/>
         <v>0.99800000000000011</v>
       </c>
     </row>
@@ -36767,7 +36822,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="O62">
-        <f>SUM(F62:N62)</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -36816,7 +36871,7 @@
         <v>0.107</v>
       </c>
       <c r="O63">
-        <f>SUM(F63:N63)</f>
+        <f t="shared" si="1"/>
         <v>0.999</v>
       </c>
     </row>
@@ -36865,7 +36920,7 @@
         <v>0.13</v>
       </c>
       <c r="O64">
-        <f>SUM(F64:N64)</f>
+        <f t="shared" si="1"/>
         <v>0.99900000000000011</v>
       </c>
     </row>
@@ -36914,7 +36969,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="O65">
-        <f>SUM(F65:N65)</f>
+        <f t="shared" si="1"/>
         <v>0.998</v>
       </c>
     </row>
@@ -36963,7 +37018,7 @@
         <v>0</v>
       </c>
       <c r="O66">
-        <f>SUM(F66:N66)</f>
+        <f t="shared" ref="O66:O97" si="2">SUM(F66:N66)</f>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -37012,7 +37067,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="O67">
-        <f>SUM(F67:N67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -37061,7 +37116,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O68">
-        <f>SUM(F68:N68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -37110,7 +37165,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="O69">
-        <f>SUM(F69:N69)</f>
+        <f t="shared" si="2"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -37159,7 +37214,7 @@
         <v>0.2</v>
       </c>
       <c r="O70">
-        <f>SUM(F70:N70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -37208,7 +37263,7 @@
         <v>0.16700000000000001</v>
       </c>
       <c r="O71">
-        <f>SUM(F71:N71)</f>
+        <f t="shared" si="2"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -37257,7 +37312,7 @@
         <v>0.214</v>
       </c>
       <c r="O72">
-        <f>SUM(F72:N72)</f>
+        <f t="shared" si="2"/>
         <v>0.99899999999999989</v>
       </c>
     </row>
@@ -37306,7 +37361,7 @@
         <v>9.4E-2</v>
       </c>
       <c r="O73">
-        <f>SUM(F73:N73)</f>
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
@@ -37355,7 +37410,7 @@
         <v>0</v>
       </c>
       <c r="O74">
-        <f>SUM(F74:N74)</f>
+        <f t="shared" si="2"/>
         <v>0.99900000000000011</v>
       </c>
     </row>
@@ -37404,7 +37459,7 @@
         <v>0</v>
       </c>
       <c r="O75">
-        <f>SUM(F75:N75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -37453,7 +37508,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="O76">
-        <f>SUM(F76:N76)</f>
+        <f t="shared" si="2"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
@@ -37502,7 +37557,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="O77">
-        <f>SUM(F77:N77)</f>
+        <f t="shared" si="2"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -37551,7 +37606,7 @@
         <v>0.2</v>
       </c>
       <c r="O78">
-        <f>SUM(F78:N78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -37600,7 +37655,7 @@
         <v>0.08</v>
       </c>
       <c r="O79">
-        <f>SUM(F79:N79)</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
     </row>
@@ -37649,13 +37704,13 @@
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="O80">
-        <f>SUM(F80:N80)</f>
+        <f t="shared" si="2"/>
         <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -37698,13 +37753,13 @@
         <v>0.22</v>
       </c>
       <c r="O81">
-        <f>SUM(F81:N81)</f>
+        <f t="shared" si="2"/>
         <v>1.0010000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
@@ -37747,7 +37802,7 @@
         <v>0.182</v>
       </c>
       <c r="O82">
-        <f>SUM(F82:N82)</f>
+        <f t="shared" si="2"/>
         <v>1.0009999999999999</v>
       </c>
     </row>
@@ -37764,10 +37819,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05AA76F-6C29-41D8-94BC-2F221F173FB9}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AA23" sqref="AA23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37777,63 +37832,112 @@
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H1" s="3" t="str">
+        <f>"NB_"&amp;I1</f>
+        <v>NB_HD|HD+P</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="J1" s="3" t="str">
+        <f>"NB_"&amp;K1</f>
+        <v>NB_HD|HU</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="L1" s="3" t="str">
+        <f>"NB_"&amp;M1</f>
+        <v>NB_HD|M</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="3" t="str">
+        <f>"NB_"&amp;O1</f>
+        <v>NB_HD+P|HU</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="P1" s="3" t="str">
+        <f>"NB_"&amp;Q1</f>
+        <v>NB_HD+P|M</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="R1" s="3" t="str">
+        <f>"NB_"&amp;S1</f>
+        <v>NB_HU|HD</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="T1" s="3" t="str">
+        <f>"NB_"&amp;U1</f>
+        <v>NB_HU|M</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="V1" s="3" t="str">
+        <f>"NB_"&amp;W1</f>
+        <v>NB_M|HD</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="X1" s="3" t="str">
+        <f>"NB_"&amp;Y1</f>
+        <v>NB_M|HU</v>
+      </c>
+      <c r="Y1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="Z1" s="22"/>
+      <c r="AA1" t="s">
         <v>366</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B2">
         <v>4200</v>
@@ -37854,36 +37958,63 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="H2">
+        <v>946</v>
+      </c>
+      <c r="I2">
         <v>0.23400000000000001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
+        <v>171</v>
+      </c>
+      <c r="K2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="J2">
+      <c r="L2">
+        <v>56</v>
+      </c>
+      <c r="M2">
         <v>1.4E-2</v>
       </c>
-      <c r="K2">
+      <c r="N2">
+        <v>863</v>
+      </c>
+      <c r="O2">
         <v>0.214</v>
       </c>
-      <c r="L2">
+      <c r="P2">
+        <v>64</v>
+      </c>
+      <c r="Q2">
         <v>1.6E-2</v>
       </c>
-      <c r="M2">
+      <c r="R2">
+        <v>855</v>
+      </c>
+      <c r="S2">
         <v>0.21199999999999999</v>
       </c>
-      <c r="N2">
+      <c r="T2">
+        <v>491</v>
+      </c>
+      <c r="U2">
         <v>0.122</v>
       </c>
-      <c r="O2">
+      <c r="V2">
+        <v>290</v>
+      </c>
+      <c r="W2">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="P2">
+      <c r="X2">
+        <v>304</v>
+      </c>
+      <c r="Y2">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B3">
         <v>2212</v>
@@ -37904,36 +38035,63 @@
         <v>0.14099999999999999</v>
       </c>
       <c r="H3">
+        <v>513</v>
+      </c>
+      <c r="I3">
         <v>0.24099999999999999</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <v>93</v>
+      </c>
+      <c r="K3">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J3">
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="K3">
+      <c r="N3">
+        <v>482</v>
+      </c>
+      <c r="O3">
         <v>0.22700000000000001</v>
       </c>
-      <c r="L3">
+      <c r="P3">
+        <v>22</v>
+      </c>
+      <c r="Q3">
         <v>0.01</v>
       </c>
-      <c r="M3">
+      <c r="R3">
+        <v>503</v>
+      </c>
+      <c r="S3">
         <v>0.23599999999999999</v>
       </c>
-      <c r="N3">
+      <c r="T3">
+        <v>242</v>
+      </c>
+      <c r="U3">
         <v>0.114</v>
       </c>
-      <c r="O3">
+      <c r="V3">
+        <v>106</v>
+      </c>
+      <c r="W3">
         <v>0.05</v>
       </c>
-      <c r="P3">
+      <c r="X3">
+        <v>157</v>
+      </c>
+      <c r="Y3">
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B4">
         <v>5468</v>
@@ -37954,36 +38112,67 @@
         <v>0.14199999999999999</v>
       </c>
       <c r="H4">
+        <v>1297</v>
+      </c>
+      <c r="I4">
         <v>0.246</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <v>214</v>
+      </c>
+      <c r="K4">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J4">
+      <c r="L4">
+        <v>36</v>
+      </c>
+      <c r="M4">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K4">
+      <c r="N4">
+        <v>1212</v>
+      </c>
+      <c r="O4">
         <v>0.23</v>
       </c>
-      <c r="L4">
+      <c r="P4">
+        <v>64</v>
+      </c>
+      <c r="Q4">
         <v>1.2E-2</v>
       </c>
-      <c r="M4">
+      <c r="R4">
+        <v>1209</v>
+      </c>
+      <c r="S4">
         <v>0.22900000000000001</v>
       </c>
-      <c r="N4">
+      <c r="T4">
+        <v>583</v>
+      </c>
+      <c r="U4">
         <v>0.11</v>
       </c>
-      <c r="O4">
+      <c r="V4">
+        <v>312</v>
+      </c>
+      <c r="W4">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="P4">
+      <c r="X4">
+        <v>354</v>
+      </c>
+      <c r="Y4">
         <v>6.7000000000000004E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="AA4">
+        <f>J4/(H4+J4+L4)</f>
+        <v>0.13833225597931481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B5">
         <v>944</v>
@@ -38004,36 +38193,63 @@
         <v>0.24199999999999999</v>
       </c>
       <c r="H5">
+        <v>162</v>
+      </c>
+      <c r="I5">
         <v>0.183</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="J5">
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K5">
+      <c r="N5">
+        <v>133</v>
+      </c>
+      <c r="O5">
         <v>0.15</v>
       </c>
-      <c r="L5">
+      <c r="P5">
+        <v>22</v>
+      </c>
+      <c r="Q5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="M5">
+      <c r="R5">
+        <v>149</v>
+      </c>
+      <c r="S5">
         <v>0.16800000000000001</v>
       </c>
-      <c r="N5">
+      <c r="T5">
+        <v>150</v>
+      </c>
+      <c r="U5">
         <v>0.16900000000000001</v>
       </c>
-      <c r="O5">
+      <c r="V5">
+        <v>84</v>
+      </c>
+      <c r="W5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="P5">
+      <c r="X5">
+        <v>107</v>
+      </c>
+      <c r="Y5">
         <v>0.121</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B6">
         <v>3928</v>
@@ -38054,36 +38270,63 @@
         <v>0.158</v>
       </c>
       <c r="H6">
+        <v>902</v>
+      </c>
+      <c r="I6">
         <v>0.23799999999999999</v>
       </c>
-      <c r="I6">
+      <c r="J6">
+        <v>159</v>
+      </c>
+      <c r="K6">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="J6">
+      <c r="L6">
+        <v>31</v>
+      </c>
+      <c r="M6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K6">
+      <c r="N6">
+        <v>830</v>
+      </c>
+      <c r="O6">
         <v>0.219</v>
       </c>
-      <c r="L6">
+      <c r="P6">
+        <v>54</v>
+      </c>
+      <c r="Q6">
         <v>1.4E-2</v>
       </c>
-      <c r="M6">
+      <c r="R6">
+        <v>818</v>
+      </c>
+      <c r="S6">
         <v>0.216</v>
       </c>
-      <c r="N6">
+      <c r="T6">
+        <v>460</v>
+      </c>
+      <c r="U6">
         <v>0.121</v>
       </c>
-      <c r="O6">
+      <c r="V6">
+        <v>254</v>
+      </c>
+      <c r="W6">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="P6">
+      <c r="X6">
+        <v>284</v>
+      </c>
+      <c r="Y6">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B7">
         <v>272</v>
@@ -38104,36 +38347,63 @@
         <v>0.26800000000000002</v>
       </c>
       <c r="H7">
+        <v>44</v>
+      </c>
+      <c r="I7">
         <v>0.17699999999999999</v>
       </c>
-      <c r="I7">
+      <c r="J7">
+        <v>12</v>
+      </c>
+      <c r="K7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="J7">
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="M7">
         <v>0.10100000000000001</v>
       </c>
-      <c r="K7">
+      <c r="N7">
+        <v>33</v>
+      </c>
+      <c r="O7">
         <v>0.13300000000000001</v>
       </c>
-      <c r="L7">
+      <c r="P7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
         <v>0.04</v>
       </c>
-      <c r="M7">
+      <c r="R7">
+        <v>37</v>
+      </c>
+      <c r="S7">
         <v>0.14899999999999999</v>
       </c>
-      <c r="N7">
+      <c r="T7">
+        <v>31</v>
+      </c>
+      <c r="U7">
         <v>0.125</v>
       </c>
-      <c r="O7">
+      <c r="V7">
+        <v>36</v>
+      </c>
+      <c r="W7">
         <v>0.14499999999999999</v>
       </c>
-      <c r="P7">
+      <c r="X7">
+        <v>20</v>
+      </c>
+      <c r="Y7">
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B8">
         <v>1540</v>
@@ -38154,36 +38424,63 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="H8">
+        <v>395</v>
+      </c>
+      <c r="I8">
         <v>0.26500000000000001</v>
       </c>
-      <c r="I8">
+      <c r="J8">
+        <v>55</v>
+      </c>
+      <c r="K8">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="J8">
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K8">
+      <c r="N8">
+        <v>382</v>
+      </c>
+      <c r="O8">
         <v>0.25700000000000001</v>
       </c>
-      <c r="L8">
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M8">
+      <c r="R8">
+        <v>391</v>
+      </c>
+      <c r="S8">
         <v>0.26300000000000001</v>
       </c>
-      <c r="N8">
+      <c r="T8">
+        <v>123</v>
+      </c>
+      <c r="U8">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="O8">
+      <c r="V8">
+        <v>58</v>
+      </c>
+      <c r="W8">
         <v>3.9E-2</v>
       </c>
-      <c r="P8">
+      <c r="X8">
+        <v>70</v>
+      </c>
+      <c r="Y8">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B9">
         <v>672</v>
@@ -38204,36 +38501,63 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="H9">
+        <v>118</v>
+      </c>
+      <c r="I9">
         <v>0.185</v>
       </c>
-      <c r="I9">
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="J9">
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K9">
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="O9">
         <v>0.156</v>
       </c>
-      <c r="L9">
+      <c r="P9">
+        <v>12</v>
+      </c>
+      <c r="Q9">
         <v>1.9E-2</v>
       </c>
-      <c r="M9">
+      <c r="R9">
+        <v>112</v>
+      </c>
+      <c r="S9">
         <v>0.17499999999999999</v>
       </c>
-      <c r="N9">
+      <c r="T9">
+        <v>119</v>
+      </c>
+      <c r="U9">
         <v>0.186</v>
       </c>
-      <c r="O9">
+      <c r="V9">
+        <v>48</v>
+      </c>
+      <c r="W9">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="P9">
+      <c r="X9">
+        <v>87</v>
+      </c>
+      <c r="Y9">
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B10">
         <v>6412</v>
@@ -38253,32 +38577,37 @@
       <c r="G10">
         <v>0.157</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.23699999999999999</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="K10">
+      <c r="O10">
         <v>0.218</v>
       </c>
-      <c r="L10">
+      <c r="Q10">
         <v>1.4E-2</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>0.22</v>
       </c>
-      <c r="N10">
+      <c r="U10">
         <v>0.11899999999999999</v>
       </c>
-      <c r="O10">
+      <c r="W10">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="P10">
+      <c r="Y10">
         <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z29" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -38288,9 +38617,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55169A43-E853-4F59-A3CB-88F1BE6BCB46}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -38308,11 +38639,11 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str" cm="1">
-        <f t="array" ref="A2:A49">TRANSPOSE('DATA SHEET'!A1:AV1)</f>
+        <f t="array" ref="A2:A37">TRANSPOSE('DATA SHEET'!A1:AJ1)</f>
         <v>VIDEO_ID#</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -38328,7 +38659,7 @@
         <v>DATE</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -38336,7 +38667,7 @@
         <v>Convert date</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -38344,7 +38675,7 @@
         <v>JULIAN_DATE</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -38352,7 +38683,7 @@
         <v>TIME</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -38360,7 +38691,7 @@
         <v>DECIMAL_TIME</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -38368,7 +38699,7 @@
         <v>LATITUDE</v>
       </c>
       <c r="B9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -38376,7 +38707,7 @@
         <v>LONGITUDE</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -38384,7 +38715,7 @@
         <v>TEMPERATURE</v>
       </c>
       <c r="B11" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -38392,7 +38723,7 @@
         <v>WEATHER</v>
       </c>
       <c r="B12" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -38400,7 +38731,7 @@
         <v>TOTAL_VIDEO_DURATION</v>
       </c>
       <c r="B13" t="s">
-        <v>175</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -38408,7 +38739,7 @@
         <v>RECORDED_DURATION</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -38416,7 +38747,7 @@
         <v>CODED_ENV</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -38424,7 +38755,7 @@
         <v>GENERALIZED_ENVIRONMENT</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -38432,7 +38763,7 @@
         <v>CODED_SENTINEL_PRESENCE</v>
       </c>
       <c r="B17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -38440,7 +38771,7 @@
         <v>SENTINEL_PRESENCE</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -38448,7 +38779,7 @@
         <v>BAIT_PRESENCE</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -38456,7 +38787,7 @@
         <v>NUMBER_OF_CROWS_RECORDED</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -38464,7 +38795,7 @@
         <v>GROUP_SIZE</v>
       </c>
       <c r="B21" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -38472,7 +38803,7 @@
         <v>BEHAVIOR</v>
       </c>
       <c r="B22" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -38480,7 +38811,7 @@
         <v>NUMBER_OF_BOUTS</v>
       </c>
       <c r="B23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -38488,7 +38819,7 @@
         <v>BEHAVIOR_DURATION</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -38496,7 +38827,7 @@
         <v>MEAN_BOUT_DURATION</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -38504,7 +38835,7 @@
         <v>SD_BOUT_DURATION</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -38512,7 +38843,7 @@
         <v>BEHAVIOR_PROPORTION_(%)</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -38520,7 +38851,7 @@
         <v>NUMBER_OF_PECKS</v>
       </c>
       <c r="B28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -38528,7 +38859,7 @@
         <v>PECK_RATE</v>
       </c>
       <c r="B29" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -38536,7 +38867,7 @@
         <v>TOTAL_NUMBER_OF_DISTURBANCES</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -38544,7 +38875,7 @@
         <v>NUMBER_HUMAN_DISTURBANCE</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -38552,7 +38883,7 @@
         <v>NUMBER_DOM_ANIMAL_DISTURBANCE</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -38560,7 +38891,7 @@
         <v>NUMBER_HETEROSPECIFIC_DISTURBANCE</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -38568,7 +38899,7 @@
         <v>NUMBER_VEHICLE_DISTURBANCE</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -38576,7 +38907,7 @@
         <v>TOTAL_AGGRESSION</v>
       </c>
       <c r="B35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -38584,7 +38915,7 @@
         <v>CONSPECIFIC_AGGRESSION</v>
       </c>
       <c r="B36" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -38592,67 +38923,263 @@
         <v>TOTAL_FREQUENCY_OF_DISTURBANCES</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>0</v>
+      <c r="A38" t="str" cm="1">
+        <f t="array" ref="A38:A49">TRANSPOSE('PATHWAY ANALYSIS'!D1:O1)</f>
+        <v>TOTAL_NB_BEHAVIORS</v>
+      </c>
+      <c r="B38" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0</v>
+      <c r="A39" t="str">
+        <v>TOTAL_NB_TRANSITIONS</v>
+      </c>
+      <c r="B39" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0</v>
+      <c r="A40" t="str">
+        <v>Head Down|Head Down+Peck at Food/Bait</v>
+      </c>
+      <c r="B40" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0</v>
+      <c r="A41" t="str">
+        <v>Head Down|Head Up</v>
+      </c>
+      <c r="B41" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0</v>
+      <c r="A42" t="str">
+        <v>Head Down|Moving</v>
+      </c>
+      <c r="B42" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0</v>
+      <c r="A43" t="str">
+        <v>Head Down+Peck at Food/Bait|Head Up</v>
+      </c>
+      <c r="B43" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0</v>
+      <c r="A44" t="str">
+        <v>Head Down+Peck at Food/Bait|Moving</v>
+      </c>
+      <c r="B44" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0</v>
+      <c r="A45" t="str">
+        <v>Head Up|Head Down</v>
+      </c>
+      <c r="B45" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0</v>
+      <c r="A46" t="str">
+        <v>Head Up|Moving</v>
+      </c>
+      <c r="B46" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0</v>
+      <c r="A47" t="str">
+        <v>Moving|Head Down</v>
+      </c>
+      <c r="B47" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0</v>
+      <c r="A48" t="str">
+        <v xml:space="preserve">Moving|Head Up	</v>
+      </c>
+      <c r="B48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <v>CHECK</v>
+      </c>
+      <c r="B49" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="str" cm="1">
+        <f t="array" ref="A50:A71">TRANSPOSE('PATHWAY ANALYSIS - SUMMARY'!D1:Y1)</f>
+        <v>FREQ_HD</v>
+      </c>
+      <c r="B50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <v>FREQ_HD+P</v>
+      </c>
+      <c r="B51" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <v>FREQ_HU</v>
+      </c>
+      <c r="B52" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <v>FREQ_M</v>
+      </c>
+      <c r="B53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <v>NB_HD|HD+P</v>
+      </c>
+      <c r="B54" t="str">
+        <f>"See '"&amp;A40&amp;"'"</f>
+        <v>See 'Head Down|Head Down+Peck at Food/Bait'</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <v>HD|HD+P</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" ref="B55:B62" si="0">"See '"&amp;A41&amp;"'"</f>
+        <v>See 'Head Down|Head Up'</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <v>NB_HD|HU</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>See 'Head Down|Moving'</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <v>HD|HU</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>See 'Head Down+Peck at Food/Bait|Head Up'</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <v>NB_HD|M</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>See 'Head Down+Peck at Food/Bait|Moving'</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <v>HD|M</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>See 'Head Up|Head Down'</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <v>NB_HD+P|HU</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>See 'Head Up|Moving'</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <v>HD+P|HU</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>See 'Moving|Head Down'</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <v>NB_HD+P|M</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>See 'Moving|Head Up	'</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <v>HD+P|M</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <v>NB_HU|HD</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <v>HU|HD</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <v>NB_HU|M</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <v>HU|M</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <v>NB_M|HD</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <v>M|HD</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <v>NB_M|HU</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <v>M|HU</v>
       </c>
     </row>
   </sheetData>
@@ -38693,79 +39220,79 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="H1" s="14" t="s">
+      <c r="M1" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="N1" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="O1" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="P1" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="Q1" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -38776,37 +39303,37 @@
         <v>20</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D2" s="8">
         <v>0.2638888888888889</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H2" s="6">
         <v>18</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N2" s="10">
         <v>2</v>
@@ -38815,34 +39342,34 @@
         <v>2</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T2" s="11">
         <v>9.2361111111111116E-2</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="V2" s="10">
         <v>14.1</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -38853,37 +39380,37 @@
         <v>24</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D3" s="8">
         <v>0.2590277777777778</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H3" s="6">
         <v>16</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N3" s="10">
         <v>2</v>
@@ -38892,34 +39419,34 @@
         <v>2</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q3" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T3" s="11">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V3" s="10">
         <v>2</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -38930,37 +39457,37 @@
         <v>25</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4" s="8">
         <v>0.26250000000000001</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H4" s="6">
         <v>16</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N4" s="10">
         <v>2</v>
@@ -38969,34 +39496,34 @@
         <v>1</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T4" s="11">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V4" s="10">
         <v>12.8</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -39007,37 +39534,37 @@
         <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D5" s="8">
         <v>0.27152777777777776</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H5" s="6">
         <v>19</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N5" s="10">
         <v>2</v>
@@ -39046,34 +39573,34 @@
         <v>1</v>
       </c>
       <c r="P5" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R5" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T5" s="11">
         <v>0.10277777777777779</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V5" s="10">
         <v>12.5</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="X5" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y5" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="Y5" s="10" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -39084,37 +39611,37 @@
         <v>27</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D6" s="8">
         <v>0.27083333333333331</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H6" s="6">
         <v>22</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N6" s="10">
         <v>2</v>
@@ -39123,34 +39650,34 @@
         <v>1</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T6" s="11">
         <v>9.930555555555555E-2</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="V6" s="10">
         <v>1</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -39167,31 +39694,31 @@
         <v>0.27361111111111108</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H7" s="6">
         <v>24</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N7" s="10">
         <v>2</v>
@@ -39200,34 +39727,34 @@
         <v>1</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T7" s="11">
         <v>8.0555555555555561E-2</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V7" s="10">
         <v>1</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -39238,37 +39765,37 @@
         <v>29</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D8" s="8">
         <v>0.27083333333333331</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H8" s="6">
         <v>21</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N8" s="10">
         <v>2</v>
@@ -39277,32 +39804,32 @@
         <v>2</v>
       </c>
       <c r="P8" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R8" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V8" s="10">
         <v>1</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -39313,37 +39840,37 @@
         <v>30</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D9" s="8">
         <v>0.26874999999999999</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H9" s="6">
         <v>22</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N9" s="10">
         <v>2</v>
@@ -39352,34 +39879,34 @@
         <v>1</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T9" s="11">
         <v>0.15138888888888888</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V9" s="10">
         <v>1</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -39396,31 +39923,31 @@
         <v>0.27569444444444446</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H10" s="6">
         <v>18</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N10" s="10">
         <v>2</v>
@@ -39429,34 +39956,34 @@
         <v>1</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T10" s="11">
         <v>0.10833333333333334</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V10" s="10">
         <v>1</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -39473,31 +40000,31 @@
         <v>0.26458333333333334</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H11" s="6">
         <v>17</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N11" s="10">
         <v>4</v>
@@ -39506,40 +40033,40 @@
         <v>4</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S11" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T11" s="11">
         <v>0.19930555555555554</v>
       </c>
       <c r="U11" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Y11" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C12" s="12">
         <v>44769</v>
@@ -39548,31 +40075,31 @@
         <v>0.26805555555555555</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H12" s="6">
         <v>17</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N12" s="10">
         <v>4</v>
@@ -39581,32 +40108,32 @@
         <v>4</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R12" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S12" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T12" s="11">
         <v>0.1125</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="W12" s="10"/>
       <c r="X12" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="Y12" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -39623,31 +40150,31 @@
         <v>0.35555555555555557</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H13" s="6">
         <v>20</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N13" s="10">
         <v>2</v>
@@ -39656,31 +40183,31 @@
         <v>2</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="R13" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="R13" s="10" t="s">
-        <v>223</v>
-      </c>
       <c r="S13" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T13" s="11">
         <v>0.82777777777777783</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V13" s="10">
         <v>5</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y13" s="10"/>
     </row>
@@ -39698,67 +40225,67 @@
         <v>0.32361111111111113</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H14" s="6">
         <v>23</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M14" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="N14" s="10">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10">
+        <v>1</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="N14" s="10">
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
-        <v>1</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>210</v>
-      </c>
       <c r="Q14" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T14" s="11">
         <v>4.5138888888888888E-2</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="V14" s="10">
         <v>5</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y14" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -39769,37 +40296,37 @@
         <v>35</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D15" s="8">
         <v>0.35069444444444442</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H15" s="6">
         <v>21</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N15" s="10">
         <v>3</v>
@@ -39808,32 +40335,32 @@
         <v>3</v>
       </c>
       <c r="P15" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R15" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T15" s="10"/>
       <c r="U15" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V15" s="10">
         <v>13.8</v>
       </c>
       <c r="W15" s="10" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="X15" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y15" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -39844,37 +40371,37 @@
         <v>36</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D16" s="8">
         <v>0.32500000000000001</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H16" s="6">
         <v>18</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N16" s="10">
         <v>2</v>
@@ -39883,34 +40410,34 @@
         <v>2</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T16" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V16" s="10">
         <v>1</v>
       </c>
       <c r="W16" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X16" s="10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Y16" s="10" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -39921,37 +40448,37 @@
         <v>37</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D17" s="8">
         <v>0.34930555555555554</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H17" s="6">
         <v>18</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N17" s="10">
         <v>4</v>
@@ -39960,34 +40487,34 @@
         <v>2</v>
       </c>
       <c r="P17" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="T17" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="U17" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="Q17" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="S17" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="T17" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="U17" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="V17" s="10">
         <v>16</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Y17" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -39998,37 +40525,37 @@
         <v>37</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D18" s="8">
         <v>0.35972222222222222</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H18" s="6">
         <v>18</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N18" s="10">
         <v>7</v>
@@ -40037,34 +40564,34 @@
         <v>7</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T18" s="11">
         <v>0.31805555555555554</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V18" s="10">
         <v>3</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y18" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -40075,37 +40602,37 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D19" s="8">
         <v>0.3125</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="H19" s="6">
         <v>15</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N19" s="10">
         <v>3</v>
@@ -40114,34 +40641,34 @@
         <v>2</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="S19" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T19" s="11">
         <v>0.15138888888888888</v>
       </c>
       <c r="U19" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V19" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="X19" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y19" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -40152,37 +40679,37 @@
         <v>38</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D20" s="8">
         <v>0.31944444444444448</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="H20" s="6">
         <v>15</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N20" s="10">
         <v>7</v>
@@ -40191,32 +40718,32 @@
         <v>7</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V20" s="10">
         <v>17</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="X20" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y20" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -40227,37 +40754,37 @@
         <v>39</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D21" s="8">
         <v>0.34722222222222227</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H21" s="6">
         <v>17</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N21" s="10">
         <v>2</v>
@@ -40266,34 +40793,34 @@
         <v>2</v>
       </c>
       <c r="P21" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T21" s="11">
         <v>0.18611111111111112</v>
       </c>
       <c r="U21" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="V21" s="10">
         <v>17</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="X21" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -40304,37 +40831,37 @@
         <v>40</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D22" s="8">
         <v>0.36805555555555558</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H22" s="6">
         <v>18</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N22" s="10">
         <v>3</v>
@@ -40343,32 +40870,32 @@
         <v>2</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T22" s="10"/>
       <c r="U22" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V22" s="10">
         <v>10</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -40379,37 +40906,37 @@
         <v>41</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D23" s="8">
         <v>0.33611111111111108</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H23" s="6">
         <v>21</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N23" s="10">
         <v>7</v>
@@ -40418,75 +40945,75 @@
         <v>5</v>
       </c>
       <c r="P23" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R23" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T23" s="11">
         <v>0.68541666666666667</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V23" s="10">
         <v>3</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y23" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D24" s="8">
         <v>0.33749999999999997</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H24" s="6">
         <v>21</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>14</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N24" s="10">
         <v>7</v>
@@ -40495,32 +41022,32 @@
         <v>5</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T24" s="10"/>
       <c r="U24" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V24" s="10">
         <v>3</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -40531,37 +41058,37 @@
         <v>42</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D25" s="8">
         <v>0.3840277777777778</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H25" s="6">
         <v>21</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N25" s="10">
         <v>2</v>
@@ -40570,34 +41097,34 @@
         <v>2</v>
       </c>
       <c r="P25" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R25" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S25" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T25" s="11">
         <v>0.17500000000000002</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="V25" s="10">
         <v>4</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Y25" s="10" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -40608,37 +41135,37 @@
         <v>43</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D26" s="8">
         <v>0.33680555555555558</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H26" s="6">
         <v>13</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N26" s="10">
         <v>2</v>
@@ -40647,34 +41174,34 @@
         <v>2</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T26" s="11">
         <v>1.3888888888888888E-2</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="V26" s="10">
         <v>4.8</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="X26" s="10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -40685,37 +41212,37 @@
         <v>43</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D27" s="8">
         <v>0.34652777777777777</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H27" s="6">
         <v>13</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N27" s="10">
         <v>25</v>
@@ -40724,34 +41251,34 @@
         <v>10</v>
       </c>
       <c r="P27" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S27" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T27" s="11">
         <v>3.9583333333333331E-2</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V27" s="10">
         <v>3</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y27" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
@@ -40762,37 +41289,37 @@
         <v>45</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D28" s="8">
         <v>0.31805555555555554</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H28" s="6">
         <v>11</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N28" s="10">
         <v>5</v>
@@ -40801,32 +41328,32 @@
         <v>2</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="T28" s="10"/>
       <c r="U28" s="10" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="V28" s="10">
         <v>3</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="X28" s="10" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y28" s="10" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
